--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Close</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -496,25 +496,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45446</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="n">
-        <v>128.8784329178771</v>
+        <v>174.36</v>
       </c>
       <c r="C2" t="n">
-        <v>35.14491416187792</v>
+        <v>27.06872370266485</v>
       </c>
       <c r="D2" t="n">
-        <v>-24.8798118953836</v>
+        <v>-3.705673148808899</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.81158249281058</v>
+        <v>-3.817430633826991</v>
       </c>
       <c r="F2" t="n">
-        <v>104.2331676148362</v>
+        <v>173.716</v>
       </c>
       <c r="G2" t="n">
-        <v>154.6893467992877</v>
+        <v>170.9525</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,33 +525,33 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K2" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45447</v>
+        <v>45323</v>
       </c>
       <c r="B3" t="n">
-        <v>113.9532603439995</v>
+        <v>173.73</v>
       </c>
       <c r="C3" t="n">
-        <v>31.90424409527593</v>
+        <v>20.44303797468351</v>
       </c>
       <c r="D3" t="n">
-        <v>-24.19637815151722</v>
+        <v>-3.837615986207481</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.28854162455191</v>
+        <v>-3.845370005081513</v>
       </c>
       <c r="F3" t="n">
-        <v>109.1953652885525</v>
+        <v>173.874</v>
       </c>
       <c r="G3" t="n">
-        <v>149.3343531381006</v>
+        <v>171.0725</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -562,33 +562,33 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K3" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45448</v>
+        <v>45324</v>
       </c>
       <c r="B4" t="n">
-        <v>87.60250239409535</v>
+        <v>174.73</v>
       </c>
       <c r="C4" t="n">
-        <v>32.23490264473949</v>
+        <v>20.54707379134852</v>
       </c>
       <c r="D4" t="n">
-        <v>-25.48723692766541</v>
+        <v>-3.886057702505951</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.92828068517461</v>
+        <v>-3.847308509800021</v>
       </c>
       <c r="F4" t="n">
-        <v>109.8030488390777</v>
+        <v>174.364</v>
       </c>
       <c r="G4" t="n">
-        <v>142.5903306438939</v>
+        <v>171.2385</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -599,33 +599,33 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K4" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45449</v>
+        <v>45327</v>
       </c>
       <c r="B5" t="n">
-        <v>78.62709026183516</v>
+        <v>174.5</v>
       </c>
       <c r="C5" t="n">
-        <v>32.52842035761728</v>
+        <v>22.5186104218362</v>
       </c>
       <c r="D5" t="n">
-        <v>-26.92412796878612</v>
+        <v>-3.993180653817745</v>
       </c>
       <c r="E5" t="n">
-        <v>-23.72745014189691</v>
+        <v>-3.837621211623538</v>
       </c>
       <c r="F5" t="n">
-        <v>105.6259059276257</v>
+        <v>174.718</v>
       </c>
       <c r="G5" t="n">
-        <v>135.6445455149289</v>
+        <v>171.35</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -636,33 +636,33 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K5" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45450</v>
+        <v>45328</v>
       </c>
       <c r="B6" t="n">
-        <v>70.56804331623739</v>
+        <v>175.1</v>
       </c>
       <c r="C6" t="n">
-        <v>24.47862735569551</v>
+        <v>23.25432415118513</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.38595656966871</v>
+        <v>-4.048407683981964</v>
       </c>
       <c r="E6" t="n">
-        <v>-24.65915142745127</v>
+        <v>-3.798731351074986</v>
       </c>
       <c r="F6" t="n">
-        <v>95.92586584680892</v>
+        <v>174.484</v>
       </c>
       <c r="G6" t="n">
-        <v>129.2674620035952</v>
+        <v>171.504</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -673,33 +673,33 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K6" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45451</v>
+        <v>45329</v>
       </c>
       <c r="B7" t="n">
-        <v>38.3932011180181</v>
+        <v>175.43</v>
       </c>
       <c r="C7" t="n">
-        <v>21.761037043154</v>
+        <v>22.39358420727945</v>
       </c>
       <c r="D7" t="n">
-        <v>-31.77443127198831</v>
+        <v>-4.121102436169991</v>
       </c>
       <c r="E7" t="n">
-        <v>-26.08220739635868</v>
+        <v>-3.736312267848242</v>
       </c>
       <c r="F7" t="n">
-        <v>77.82881948683711</v>
+        <v>174.698</v>
       </c>
       <c r="G7" t="n">
-        <v>122.269003982029</v>
+        <v>171.7425</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -710,33 +710,33 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K7" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45452</v>
+        <v>45330</v>
       </c>
       <c r="B8" t="n">
-        <v>44.10203928738878</v>
+        <v>174.8</v>
       </c>
       <c r="C8" t="n">
-        <v>23.31336396978881</v>
+        <v>17.38122827346467</v>
       </c>
       <c r="D8" t="n">
-        <v>-33.61171146944574</v>
+        <v>-4.187544066254787</v>
       </c>
       <c r="E8" t="n">
-        <v>-27.5881082109761</v>
+        <v>-3.640114725767804</v>
       </c>
       <c r="F8" t="n">
-        <v>63.85857527551495</v>
+        <v>174.912</v>
       </c>
       <c r="G8" t="n">
-        <v>115.2340916628709</v>
+        <v>171.9315</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K8" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45453</v>
+        <v>45331</v>
       </c>
       <c r="B9" t="n">
-        <v>72.3902946695508</v>
+        <v>175.01</v>
       </c>
       <c r="C9" t="n">
-        <v>34.27827341429371</v>
+        <v>21.15600448933785</v>
       </c>
       <c r="D9" t="n">
-        <v>-32.4115235997092</v>
+        <v>-4.147292560417526</v>
       </c>
       <c r="E9" t="n">
-        <v>-28.55279128872272</v>
+        <v>-3.503257390646058</v>
       </c>
       <c r="F9" t="n">
-        <v>60.81613373060604</v>
+        <v>174.968</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5153499487503</v>
+        <v>172.167</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -784,33 +784,33 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K9" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45454</v>
+        <v>45334</v>
       </c>
       <c r="B10" t="n">
-        <v>59.17927827600818</v>
+        <v>175.79</v>
       </c>
       <c r="C10" t="n">
-        <v>34.92289885073043</v>
+        <v>20.45577862181227</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.15571362946078</v>
+        <v>-4.056974564815476</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.27337575687033</v>
+        <v>-3.342248598203191</v>
       </c>
       <c r="F10" t="n">
-        <v>56.92657133344064</v>
+        <v>175.226</v>
       </c>
       <c r="G10" t="n">
-        <v>104.5567808543596</v>
+        <v>172.504</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -821,33 +821,33 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K10" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45455</v>
+        <v>45335</v>
       </c>
       <c r="B11" t="n">
-        <v>60.72987474456781</v>
+        <v>174.26</v>
       </c>
       <c r="C11" t="n">
-        <v>39.19592982240925</v>
+        <v>11.93393713372406</v>
       </c>
       <c r="D11" t="n">
-        <v>-31.46515152844701</v>
+        <v>-3.962103602213375</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.71173091118567</v>
+        <v>-3.163567106550119</v>
       </c>
       <c r="F11" t="n">
-        <v>54.95893761910673</v>
+        <v>175.058</v>
       </c>
       <c r="G11" t="n">
-        <v>100.2143499456215</v>
+        <v>172.8175</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -858,33 +858,33 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K11" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45456</v>
+        <v>45336</v>
       </c>
       <c r="B12" t="n">
-        <v>105.7562509244419</v>
+        <v>176.03</v>
       </c>
       <c r="C12" t="n">
-        <v>53.56274143774584</v>
+        <v>12.45828698553953</v>
       </c>
       <c r="D12" t="n">
-        <v>-26.97368794745259</v>
+        <v>-3.627601339369079</v>
       </c>
       <c r="E12" t="n">
-        <v>-29.16412231843906</v>
+        <v>-2.963932982634305</v>
       </c>
       <c r="F12" t="n">
-        <v>68.43154758039148</v>
+        <v>175.178</v>
       </c>
       <c r="G12" t="n">
-        <v>97.20220936461349</v>
+        <v>173.2645</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -895,33 +895,33 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K12" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45457</v>
+        <v>45337</v>
       </c>
       <c r="B13" t="n">
-        <v>153.6282416254906</v>
+        <v>179.87</v>
       </c>
       <c r="C13" t="n">
-        <v>62.49095584098353</v>
+        <v>24.68354430379748</v>
       </c>
       <c r="D13" t="n">
-        <v>-19.3284942830861</v>
+        <v>-3.328107886220607</v>
       </c>
       <c r="E13" t="n">
-        <v>-27.19699671136847</v>
+        <v>-2.798015893450611</v>
       </c>
       <c r="F13" t="n">
-        <v>90.33678804801185</v>
+        <v>176.192</v>
       </c>
       <c r="G13" t="n">
-        <v>97.02498287425958</v>
+        <v>173.887</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -932,70 +932,70 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
       <c r="K13" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45458</v>
+        <v>45338</v>
       </c>
       <c r="B14" t="n">
-        <v>174.2657628952507</v>
+        <v>179.03</v>
       </c>
       <c r="C14" t="n">
-        <v>63.24723770908196</v>
+        <v>19.98693664271718</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.47210445292538</v>
+        <v>-3.288418309493352</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.05201825967985</v>
+        <v>-2.665492895258112</v>
       </c>
       <c r="F14" t="n">
-        <v>110.7118816931518</v>
+        <v>176.996</v>
       </c>
       <c r="G14" t="n">
-        <v>97.8070517449422</v>
+        <v>174.323</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K14" t="n">
-        <v>10476.37743973747</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45459</v>
+        <v>45342</v>
       </c>
       <c r="B15" t="n">
-        <v>151.6795770275787</v>
+        <v>179.73</v>
       </c>
       <c r="C15" t="n">
-        <v>55.71775154164303</v>
+        <v>20.84468664850137</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.987824063150214</v>
+        <v>-3.104401165241597</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.63917942037393</v>
+        <v>-2.509761541699302</v>
       </c>
       <c r="F15" t="n">
-        <v>129.2119414434659</v>
+        <v>177.784</v>
       </c>
       <c r="G15" t="n">
-        <v>98.17976238660833</v>
+        <v>174.804</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1003,36 +1003,36 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K15" t="n">
-        <v>9118.558186301978</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45343</v>
       </c>
       <c r="B16" t="n">
-        <v>158.7878514106931</v>
+        <v>180.9</v>
       </c>
       <c r="C16" t="n">
-        <v>55.2941842691659</v>
+        <v>20.31872509960161</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.827823817657389</v>
+        <v>-2.895646175084011</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.07690829983062</v>
+        <v>-2.361101635813728</v>
       </c>
       <c r="F16" t="n">
-        <v>148.823536776691</v>
+        <v>179.112</v>
       </c>
       <c r="G16" t="n">
-        <v>99.77928748596133</v>
+        <v>175.3995</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1040,36 +1040,36 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K16" t="n">
-        <v>9545.888053887533</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45461</v>
+        <v>45344</v>
       </c>
       <c r="B17" t="n">
-        <v>162.8032237703028</v>
+        <v>183.07</v>
       </c>
       <c r="C17" t="n">
-        <v>58.99417373636714</v>
+        <v>21.20582120582121</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7839761505768763</v>
+        <v>-2.706207679645303</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.50473140974912</v>
+        <v>-2.227465500996157</v>
       </c>
       <c r="F17" t="n">
-        <v>160.2329313458632</v>
+        <v>180.52</v>
       </c>
       <c r="G17" t="n">
-        <v>102.681616506982</v>
+        <v>176.028</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1077,36 +1077,36 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K17" t="n">
-        <v>9787.281174954274</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45462</v>
+        <v>45345</v>
       </c>
       <c r="B18" t="n">
-        <v>181.639566027342</v>
+        <v>183.99</v>
       </c>
       <c r="C18" t="n">
-        <v>67.80667268544269</v>
+        <v>38.23877068557922</v>
       </c>
       <c r="D18" t="n">
-        <v>5.107413956443565</v>
+        <v>-2.645997706490533</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.782302336510586</v>
+        <v>-2.10777995633387</v>
       </c>
       <c r="F18" t="n">
-        <v>165.8351962262334</v>
+        <v>181.344</v>
       </c>
       <c r="G18" t="n">
-        <v>107.3064812095782</v>
+        <v>176.5805</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1114,36 +1114,36 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K18" t="n">
-        <v>10919.67016399187</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45463</v>
+        <v>45348</v>
       </c>
       <c r="B19" t="n">
-        <v>188.4292120202063</v>
+        <v>183.36</v>
       </c>
       <c r="C19" t="n">
-        <v>70.96546185233809</v>
+        <v>31.36412459720731</v>
       </c>
       <c r="D19" t="n">
-        <v>8.978142812818987</v>
+        <v>-2.624333374114912</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.030213306644672</v>
+        <v>-1.973225518794704</v>
       </c>
       <c r="F19" t="n">
-        <v>168.6678860512246</v>
+        <v>182.21</v>
       </c>
       <c r="G19" t="n">
-        <v>112.499737578515</v>
+        <v>177.1345</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1151,36 +1151,36 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K19" t="n">
-        <v>11327.84497080234</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45464</v>
+        <v>45349</v>
       </c>
       <c r="B20" t="n">
-        <v>181.5718350699537</v>
+        <v>183.45</v>
       </c>
       <c r="C20" t="n">
-        <v>71.29261678328336</v>
+        <v>27.9559597893729</v>
       </c>
       <c r="D20" t="n">
-        <v>11.36142289727738</v>
+        <v>-2.494364231713803</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.551886065860262</v>
+        <v>-1.810448554964652</v>
       </c>
       <c r="F20" t="n">
-        <v>174.6463376596996</v>
+        <v>182.954</v>
       </c>
       <c r="G20" t="n">
-        <v>116.6026890910579</v>
+        <v>177.6705</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1188,36 +1188,36 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K20" t="n">
-        <v>10915.59836548042</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45465</v>
+        <v>45350</v>
       </c>
       <c r="B21" t="n">
-        <v>172.2852909784102</v>
+        <v>184.38</v>
       </c>
       <c r="C21" t="n">
-        <v>78.15528619492223</v>
+        <v>27.69084874348033</v>
       </c>
       <c r="D21" t="n">
-        <v>12.35838328780079</v>
+        <v>-2.301358319315085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4301678048719486</v>
+        <v>-1.639469635777365</v>
       </c>
       <c r="F21" t="n">
-        <v>177.345825573243</v>
+        <v>183.65</v>
       </c>
       <c r="G21" t="n">
-        <v>119.2635414539624</v>
+        <v>178.076</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1225,36 +1225,36 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K21" t="n">
-        <v>10357.31692569896</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45466</v>
+        <v>45351</v>
       </c>
       <c r="B22" t="n">
-        <v>113.1520069799568</v>
+        <v>186.06</v>
       </c>
       <c r="C22" t="n">
-        <v>61.85615666869428</v>
+        <v>26.60592255125285</v>
       </c>
       <c r="D22" t="n">
-        <v>8.281456285766723</v>
+        <v>-2.116229197390709</v>
       </c>
       <c r="E22" t="n">
-        <v>2.000425501050903</v>
+        <v>-1.473997464892934</v>
       </c>
       <c r="F22" t="n">
-        <v>167.4155822151738</v>
+        <v>184.248</v>
       </c>
       <c r="G22" t="n">
-        <v>118.4772201570664</v>
+        <v>178.661</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1262,36 +1262,36 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K22" t="n">
-        <v>6802.386845764888</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45467</v>
+        <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>106.911971622346</v>
+        <v>185.29</v>
       </c>
       <c r="C23" t="n">
-        <v>56.41307910738142</v>
+        <v>21.20451693851942</v>
       </c>
       <c r="D23" t="n">
-        <v>4.495126540138415</v>
+        <v>-2.020210147990639</v>
       </c>
       <c r="E23" t="n">
-        <v>2.499365708868406</v>
+        <v>-1.313439531768491</v>
       </c>
       <c r="F23" t="n">
-        <v>152.4700633341746</v>
+        <v>184.508</v>
       </c>
       <c r="G23" t="n">
-        <v>118.1251557209837</v>
+        <v>179.239</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1299,36 +1299,36 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K23" t="n">
-        <v>6427.253115779537</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45468</v>
+        <v>45355</v>
       </c>
       <c r="B24" t="n">
-        <v>115.5629998622297</v>
+        <v>186.68</v>
       </c>
       <c r="C24" t="n">
-        <v>60.65489989095909</v>
+        <v>30.08814102564102</v>
       </c>
       <c r="D24" t="n">
-        <v>2.167512877769212</v>
+        <v>-1.789870050058283</v>
       </c>
       <c r="E24" t="n">
-        <v>2.432995142648567</v>
+        <v>-1.136746877712953</v>
       </c>
       <c r="F24" t="n">
-        <v>137.8968209025793</v>
+        <v>185.172</v>
       </c>
       <c r="G24" t="n">
-        <v>119.5231805943904</v>
+        <v>179.8365</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1336,36 +1336,36 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K24" t="n">
-        <v>6947.329093855203</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45469</v>
+        <v>45356</v>
       </c>
       <c r="B25" t="n">
-        <v>101.9708722972861</v>
+        <v>188.55</v>
       </c>
       <c r="C25" t="n">
-        <v>57.45412350472913</v>
+        <v>37.40458015267178</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7650893458234691</v>
+        <v>-1.611365124332877</v>
       </c>
       <c r="E25" t="n">
-        <v>1.79337824495416</v>
+        <v>-0.973466084626621</v>
       </c>
       <c r="F25" t="n">
-        <v>121.9766283480458</v>
+        <v>186.192</v>
       </c>
       <c r="G25" t="n">
-        <v>120.690369696163</v>
+        <v>180.539</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1373,36 +1373,36 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K25" t="n">
-        <v>6130.207840582974</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45470</v>
+        <v>45357</v>
       </c>
       <c r="B26" t="n">
-        <v>93.66970245501544</v>
+        <v>189.53</v>
       </c>
       <c r="C26" t="n">
-        <v>47.48099189184422</v>
+        <v>37.51007252215957</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.716194786530806</v>
+        <v>-1.550489890053058</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6914636386571669</v>
+        <v>-0.8139913247000568</v>
       </c>
       <c r="F26" t="n">
-        <v>106.2535106433668</v>
+        <v>187.222</v>
       </c>
       <c r="G26" t="n">
-        <v>121.8454526531019</v>
+        <v>181.2605</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1410,36 +1410,36 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K26" t="n">
-        <v>5631.164385264282</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45471</v>
+        <v>45358</v>
       </c>
       <c r="B27" t="n">
-        <v>107.1334759142124</v>
+        <v>187.87</v>
       </c>
       <c r="C27" t="n">
-        <v>38.68733236108093</v>
+        <v>28.38589981447124</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.911931425251268</v>
+        <v>-1.550020192626079</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.42921537412452</v>
+        <v>-0.6298666833618064</v>
       </c>
       <c r="F27" t="n">
-        <v>105.0498044302179</v>
+        <v>187.584</v>
       </c>
       <c r="G27" t="n">
-        <v>125.2824663929116</v>
+        <v>181.8825</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1447,36 +1447,36 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K27" t="n">
-        <v>6440.569343405436</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45472</v>
+        <v>45359</v>
       </c>
       <c r="B28" t="n">
-        <v>148.1817588652654</v>
+        <v>188.22</v>
       </c>
       <c r="C28" t="n">
-        <v>44.22688940152978</v>
+        <v>27.94010226442659</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.518278796526587</v>
+        <v>-1.357856757835606</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.8470280586049335</v>
+        <v>-0.3998283060457383</v>
       </c>
       <c r="F28" t="n">
-        <v>113.3037618788018</v>
+        <v>188.17</v>
       </c>
       <c r="G28" t="n">
-        <v>130.4864523718055</v>
+        <v>182.5535</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1484,36 +1484,36 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K28" t="n">
-        <v>8908.278997348554</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45473</v>
+        <v>45362</v>
       </c>
       <c r="B29" t="n">
-        <v>178.3101240341686</v>
+        <v>188.29</v>
       </c>
       <c r="C29" t="n">
-        <v>55.70365429635706</v>
+        <v>31.42657830484829</v>
       </c>
       <c r="D29" t="n">
-        <v>1.789190755651987</v>
+        <v>-1.128472057316344</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3197842957535494</v>
+        <v>-0.1603211930982714</v>
       </c>
       <c r="F29" t="n">
-        <v>125.8531867131896</v>
+        <v>188.492</v>
       </c>
       <c r="G29" t="n">
-        <v>135.7824438400363</v>
+        <v>183.2175</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1521,36 +1521,36 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K29" t="n">
-        <v>10719.51328633161</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45474</v>
+        <v>45363</v>
       </c>
       <c r="B30" t="n">
-        <v>155.4955764962745</v>
+        <v>189.84</v>
       </c>
       <c r="C30" t="n">
-        <v>49.33931956998112</v>
+        <v>33.41911764705883</v>
       </c>
       <c r="D30" t="n">
-        <v>3.323635293445363</v>
+        <v>-0.8264069005471413</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4088996220862333</v>
+        <v>0.08171652295624673</v>
       </c>
       <c r="F30" t="n">
-        <v>136.5581275529873</v>
+        <v>188.75</v>
       </c>
       <c r="G30" t="n">
-        <v>140.5982587510496</v>
+        <v>183.92</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1558,36 +1558,36 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K30" t="n">
-        <v>9347.965558580407</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45475</v>
+        <v>45364</v>
       </c>
       <c r="B31" t="n">
-        <v>153.5345118792694</v>
+        <v>191.38</v>
       </c>
       <c r="C31" t="n">
-        <v>48.12452907605111</v>
+        <v>36.8039664378337</v>
       </c>
       <c r="D31" t="n">
-        <v>4.331521041146914</v>
+        <v>-0.5866596364446934</v>
       </c>
       <c r="E31" t="n">
-        <v>1.193423905898369</v>
+        <v>0.3087473788320937</v>
       </c>
       <c r="F31" t="n">
-        <v>148.531089437838</v>
+        <v>189.12</v>
       </c>
       <c r="G31" t="n">
-        <v>145.2384906077847</v>
+        <v>184.776</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1595,36 +1595,36 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K31" t="n">
-        <v>9230.07175792715</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45476</v>
+        <v>45365</v>
       </c>
       <c r="B32" t="n">
-        <v>132.4747359174867</v>
+        <v>187.97</v>
       </c>
       <c r="C32" t="n">
-        <v>40.14049304243176</v>
+        <v>34.91751767478398</v>
       </c>
       <c r="D32" t="n">
-        <v>3.391830925829026</v>
+        <v>-0.4289217155510983</v>
       </c>
       <c r="E32" t="n">
-        <v>1.633105309884501</v>
+        <v>0.5325991326512906</v>
       </c>
       <c r="F32" t="n">
-        <v>153.5993414384929</v>
+        <v>189.14</v>
       </c>
       <c r="G32" t="n">
-        <v>146.5744148574369</v>
+        <v>185.373</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1632,36 +1632,36 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K32" t="n">
-        <v>7964.016061694014</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45477</v>
+        <v>45366</v>
       </c>
       <c r="B33" t="n">
-        <v>204.12815682207</v>
+        <v>190.3</v>
       </c>
       <c r="C33" t="n">
-        <v>52.49831391776617</v>
+        <v>35.65984757320503</v>
       </c>
       <c r="D33" t="n">
-        <v>8.332895540964643</v>
+        <v>0.1258480920701857</v>
       </c>
       <c r="E33" t="n">
-        <v>2.973063356100529</v>
+        <v>0.7729793447018877</v>
       </c>
       <c r="F33" t="n">
-        <v>164.7886210298538</v>
+        <v>189.556</v>
       </c>
       <c r="G33" t="n">
-        <v>149.0994106172659</v>
+        <v>185.8945</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1669,36 +1669,36 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K33" t="n">
-        <v>12271.62227058548</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45478</v>
+        <v>45369</v>
       </c>
       <c r="B34" t="n">
-        <v>229.4915042861599</v>
+        <v>192.66</v>
       </c>
       <c r="C34" t="n">
-        <v>57.20170346489629</v>
+        <v>37.66949152542375</v>
       </c>
       <c r="D34" t="n">
-        <v>14.13242521615825</v>
+        <v>0.5948692197312653</v>
       </c>
       <c r="E34" t="n">
-        <v>5.204935728112075</v>
+        <v>0.9347621578598132</v>
       </c>
       <c r="F34" t="n">
-        <v>175.0248970802521</v>
+        <v>190.43</v>
       </c>
       <c r="G34" t="n">
-        <v>151.8606976868114</v>
+        <v>186.576</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1706,36 +1706,36 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K34" t="n">
-        <v>13796.3968261517</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45479</v>
+        <v>45370</v>
       </c>
       <c r="B35" t="n">
-        <v>214.440876531311</v>
+        <v>193.79</v>
       </c>
       <c r="C35" t="n">
-        <v>56.22754233620453</v>
+        <v>42.9411764705882</v>
       </c>
       <c r="D35" t="n">
-        <v>17.31454311552534</v>
+        <v>0.9445671794771044</v>
       </c>
       <c r="E35" t="n">
-        <v>7.626857205594728</v>
+        <v>1.01973539239195</v>
       </c>
       <c r="F35" t="n">
-        <v>186.8139570872594</v>
+        <v>191.22</v>
       </c>
       <c r="G35" t="n">
-        <v>154.998762661998</v>
+        <v>187.279</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1743,73 +1743,73 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>60.11724429218327</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K35" t="n">
-        <v>12891.59456066273</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45480</v>
+        <v>45371</v>
       </c>
       <c r="B36" t="n">
-        <v>241.3277663623271</v>
+        <v>196.33</v>
       </c>
       <c r="C36" t="n">
-        <v>70.92908362042925</v>
+        <v>51.87445510026159</v>
       </c>
       <c r="D36" t="n">
-        <v>21.75516181960592</v>
+        <v>1.262115234578488</v>
       </c>
       <c r="E36" t="n">
-        <v>10.45251812839697</v>
+        <v>1.038527445620661</v>
       </c>
       <c r="F36" t="n">
-        <v>204.372607983871</v>
+        <v>192.21</v>
       </c>
       <c r="G36" t="n">
-        <v>159.1257584095797</v>
+        <v>188.0505</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HOLD</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14507.96028489095</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45481</v>
+        <v>45372</v>
       </c>
       <c r="B37" t="n">
-        <v>271.2434385016374</v>
+        <v>199.06</v>
       </c>
       <c r="C37" t="n">
-        <v>74.90700238483869</v>
+        <v>58.96296296296295</v>
       </c>
       <c r="D37" t="n">
-        <v>27.37279235021683</v>
+        <v>1.390445803314066</v>
       </c>
       <c r="E37" t="n">
-        <v>13.83657297276094</v>
+        <v>0.9826304983812049</v>
       </c>
       <c r="F37" t="n">
-        <v>232.1263485007011</v>
+        <v>194.428</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5477691461464</v>
+        <v>188.85</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1817,36 +1817,36 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16306.40805505472</v>
+        <v>10139.0515968013</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45482</v>
+        <v>45373</v>
       </c>
       <c r="B38" t="n">
-        <v>270.7350825958384</v>
+        <v>196.62</v>
       </c>
       <c r="C38" t="n">
-        <v>74.11395904927554</v>
+        <v>72.70935960591135</v>
       </c>
       <c r="D38" t="n">
-        <v>31.42157657003094</v>
+        <v>1.256053972088353</v>
       </c>
       <c r="E38" t="n">
-        <v>17.35357369221494</v>
+        <v>0.8806766721479897</v>
       </c>
       <c r="F38" t="n">
-        <v>245.4477336554548</v>
+        <v>195.692</v>
       </c>
       <c r="G38" t="n">
-        <v>169.0025449745712</v>
+        <v>189.4815</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1854,36 +1854,36 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>16275.84709887843</v>
+        <v>10014.77104874446</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45483</v>
+        <v>45376</v>
       </c>
       <c r="B39" t="n">
-        <v>249.4935121401739</v>
+        <v>194.82</v>
       </c>
       <c r="C39" t="n">
-        <v>72.39284218653577</v>
+        <v>70.74782608695654</v>
       </c>
       <c r="D39" t="n">
-        <v>32.54113606122797</v>
+        <v>1.314687613366232</v>
       </c>
       <c r="E39" t="n">
-        <v>20.39108616601755</v>
+        <v>0.7868323471628988</v>
       </c>
       <c r="F39" t="n">
-        <v>249.4481352262576</v>
+        <v>196.124</v>
       </c>
       <c r="G39" t="n">
-        <v>172.0557599805696</v>
+        <v>190.0545</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1891,36 +1891,36 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>14998.86241864563</v>
+        <v>9923.088677227117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45484</v>
+        <v>45377</v>
       </c>
       <c r="B40" t="n">
-        <v>230.27058446396</v>
+        <v>195.73</v>
       </c>
       <c r="C40" t="n">
-        <v>70.06955735708175</v>
+        <v>74.94153023722016</v>
       </c>
       <c r="D40" t="n">
-        <v>31.51399173330856</v>
+        <v>1.553675459311961</v>
       </c>
       <c r="E40" t="n">
-        <v>22.61566727947575</v>
+        <v>0.6548685306120656</v>
       </c>
       <c r="F40" t="n">
-        <v>252.6140768127874</v>
+        <v>196.512</v>
       </c>
       <c r="G40" t="n">
-        <v>174.4906974502699</v>
+        <v>190.6685</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1928,36 +1928,36 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>13843.2329795237</v>
+        <v>9969.439209494218</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45485</v>
+        <v>45378</v>
       </c>
       <c r="B41" t="n">
-        <v>271.7075495001288</v>
+        <v>199.52</v>
       </c>
       <c r="C41" t="n">
-        <v>72.34289055527243</v>
+        <v>86.1876396128072</v>
       </c>
       <c r="D41" t="n">
-        <v>33.65562809770074</v>
+        <v>1.743457394183594</v>
       </c>
       <c r="E41" t="n">
-        <v>24.82365944312075</v>
+        <v>0.4301667984370917</v>
       </c>
       <c r="F41" t="n">
-        <v>258.6900334403477</v>
+        <v>197.15</v>
       </c>
       <c r="G41" t="n">
-        <v>179.4618103763559</v>
+        <v>191.4255</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1965,36 +1965,36 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>16334.30912932972</v>
+        <v>10162.48153618907</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45486</v>
+        <v>45379</v>
       </c>
       <c r="B42" t="n">
-        <v>263.6911792018097</v>
+        <v>200.3</v>
       </c>
       <c r="C42" t="n">
-        <v>67.22684700400956</v>
+        <v>84.95412844036707</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31052587395175</v>
+        <v>1.574437865322523</v>
       </c>
       <c r="E42" t="n">
-        <v>26.72103272928695</v>
+        <v>0.1018441495004661</v>
       </c>
       <c r="F42" t="n">
-        <v>257.1795815803822</v>
+        <v>197.398</v>
       </c>
       <c r="G42" t="n">
-        <v>186.9887689874485</v>
+        <v>192.1375</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2002,36 +2002,36 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>15852.38703776907</v>
+        <v>10202.21056384658</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45487</v>
+        <v>45383</v>
       </c>
       <c r="B43" t="n">
-        <v>233.8185802952792</v>
+        <v>198.94</v>
       </c>
       <c r="C43" t="n">
-        <v>58.28474196978841</v>
+        <v>71.58344283837059</v>
       </c>
       <c r="D43" t="n">
-        <v>32.04961993546277</v>
+        <v>1.256388388626078</v>
       </c>
       <c r="E43" t="n">
-        <v>27.78675017052212</v>
+        <v>-0.266304279455048</v>
       </c>
       <c r="F43" t="n">
-        <v>249.7962811202704</v>
+        <v>197.862</v>
       </c>
       <c r="G43" t="n">
-        <v>193.3340994210952</v>
+        <v>192.82</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2039,36 +2039,36 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14056.52871166277</v>
+        <v>10132.93943870015</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45488</v>
+        <v>45384</v>
       </c>
       <c r="B44" t="n">
-        <v>262.4124599419807</v>
+        <v>198.86</v>
       </c>
       <c r="C44" t="n">
-        <v>65.68692350498014</v>
+        <v>63.90933176332062</v>
       </c>
       <c r="D44" t="n">
-        <v>32.19401029808765</v>
+        <v>0.9706395890807471</v>
       </c>
       <c r="E44" t="n">
-        <v>28.66820219603522</v>
+        <v>-0.6469774464753296</v>
       </c>
       <c r="F44" t="n">
-        <v>252.3800706806317</v>
+        <v>198.67</v>
       </c>
       <c r="G44" t="n">
-        <v>200.6765724250827</v>
+        <v>193.429</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2076,36 +2076,36 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>15775.51395964481</v>
+        <v>10128.86466663271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45489</v>
+        <v>45385</v>
       </c>
       <c r="B45" t="n">
-        <v>270.9789784629866</v>
+        <v>198.3</v>
       </c>
       <c r="C45" t="n">
-        <v>66.90388778289051</v>
+        <v>58.52241283895965</v>
       </c>
       <c r="D45" t="n">
-        <v>32.6236223411579</v>
+        <v>0.5999472727290254</v>
       </c>
       <c r="E45" t="n">
-        <v>29.45928622505976</v>
+        <v>-1.051381705364349</v>
       </c>
       <c r="F45" t="n">
-        <v>260.5217494804371</v>
+        <v>199.184</v>
       </c>
       <c r="G45" t="n">
-        <v>209.1269777333678</v>
+        <v>193.9165</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2113,36 +2113,36 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16290.50944630563</v>
+        <v>10100.34126216065</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45490</v>
+        <v>45386</v>
       </c>
       <c r="B46" t="n">
-        <v>302.6852663686031</v>
+        <v>195.65</v>
       </c>
       <c r="C46" t="n">
-        <v>73.77006785171335</v>
+        <v>53.73221028173104</v>
       </c>
       <c r="D46" t="n">
-        <v>35.11771032929735</v>
+        <v>0.1751007558913216</v>
       </c>
       <c r="E46" t="n">
-        <v>30.59097104590728</v>
+        <v>-1.464213949887692</v>
       </c>
       <c r="F46" t="n">
-        <v>266.7172928541319</v>
+        <v>198.41</v>
       </c>
       <c r="G46" t="n">
-        <v>219.5777559290471</v>
+        <v>194.2225</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2150,36 +2150,36 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>18196.60410192588</v>
+        <v>9965.364437426781</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45491</v>
+        <v>45387</v>
       </c>
       <c r="B47" t="n">
-        <v>319.9454819068961</v>
+        <v>197.45</v>
       </c>
       <c r="C47" t="n">
-        <v>69.07134692673574</v>
+        <v>56.19684082624543</v>
       </c>
       <c r="D47" t="n">
-        <v>38.0484493335519</v>
+        <v>-0.09988662750362209</v>
       </c>
       <c r="E47" t="n">
-        <v>32.0824667034362</v>
+        <v>-1.874042626332446</v>
       </c>
       <c r="F47" t="n">
-        <v>277.9681533951492</v>
+        <v>197.84</v>
       </c>
       <c r="G47" t="n">
-        <v>230.2183562286813</v>
+        <v>194.7015</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2187,36 +2187,36 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>19234.24069597718</v>
+        <v>10057.04680894412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45492</v>
+        <v>45390</v>
       </c>
       <c r="B48" t="n">
-        <v>316.9589214795159</v>
+        <v>198.48</v>
       </c>
       <c r="C48" t="n">
-        <v>65.54890945365077</v>
+        <v>57.79443923773819</v>
       </c>
       <c r="D48" t="n">
-        <v>39.67276767221045</v>
+        <v>-0.6326903550003919</v>
       </c>
       <c r="E48" t="n">
-        <v>33.60052689719106</v>
+        <v>-2.317581626039651</v>
       </c>
       <c r="F48" t="n">
-        <v>294.5962216319965</v>
+        <v>197.748</v>
       </c>
       <c r="G48" t="n">
-        <v>238.6572143593939</v>
+        <v>195.2145</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2224,36 +2224,36 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>19054.69691317099</v>
+        <v>10109.50949931238</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45493</v>
+        <v>45391</v>
       </c>
       <c r="B49" t="n">
-        <v>303.3189741164158</v>
+        <v>197.15</v>
       </c>
       <c r="C49" t="n">
-        <v>65.87932570736058</v>
+        <v>56.26416315959859</v>
       </c>
       <c r="D49" t="n">
-        <v>39.40518347356505</v>
+        <v>-1.408411616568941</v>
       </c>
       <c r="E49" t="n">
-        <v>34.76145821246586</v>
+        <v>-2.738804443799466</v>
       </c>
       <c r="F49" t="n">
-        <v>302.7775244668836</v>
+        <v>197.406</v>
       </c>
       <c r="G49" t="n">
-        <v>244.9076568635062</v>
+        <v>195.6575</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2261,36 +2261,36 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>18234.70086541098</v>
+        <v>10041.76641369123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45494</v>
+        <v>45392</v>
       </c>
       <c r="B50" t="n">
-        <v>298.5458017217815</v>
+        <v>195.47</v>
       </c>
       <c r="C50" t="n">
-        <v>61.09990765688435</v>
+        <v>56.06504065040649</v>
       </c>
       <c r="D50" t="n">
-        <v>38.3657099249283</v>
+        <v>-2.242609857820895</v>
       </c>
       <c r="E50" t="n">
-        <v>35.48230855495835</v>
+        <v>-3.071402650607097</v>
       </c>
       <c r="F50" t="n">
-        <v>308.2908891186424</v>
+        <v>196.84</v>
       </c>
       <c r="G50" t="n">
-        <v>252.0601681247816</v>
+        <v>195.939</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2298,36 +2298,36 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>17947.75089451405</v>
+        <v>9956.196200275046</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45495</v>
+        <v>45393</v>
       </c>
       <c r="B51" t="n">
-        <v>330.2553604037806</v>
+        <v>195.43</v>
       </c>
       <c r="C51" t="n">
-        <v>61.3687822646212</v>
+        <v>55.78981511514758</v>
       </c>
       <c r="D51" t="n">
-        <v>39.64362894920509</v>
+        <v>-3.103675833268738</v>
       </c>
       <c r="E51" t="n">
-        <v>36.3145726338077</v>
+        <v>-3.278600848803648</v>
       </c>
       <c r="F51" t="n">
-        <v>313.804907925678</v>
+        <v>196.796</v>
       </c>
       <c r="G51" t="n">
-        <v>260.8962105510071</v>
+        <v>196.1415</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2335,36 +2335,36 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>19854.04218019711</v>
+        <v>9954.158814241327</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45496</v>
+        <v>45394</v>
       </c>
       <c r="B52" t="n">
-        <v>325.6896425124679</v>
+        <v>182.79</v>
       </c>
       <c r="C52" t="n">
-        <v>60.42415917433301</v>
+        <v>25.88363240891786</v>
       </c>
       <c r="D52" t="n">
-        <v>39.82885149884197</v>
+        <v>-4.153492029810963</v>
       </c>
       <c r="E52" t="n">
-        <v>37.01742840681456</v>
+        <v>-3.322332102687374</v>
       </c>
       <c r="F52" t="n">
-        <v>314.9537400467923</v>
+        <v>193.864</v>
       </c>
       <c r="G52" t="n">
-        <v>270.5569558807562</v>
+        <v>195.8825</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2372,36 +2372,36 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>19579.56380235587</v>
+        <v>9310.344827586205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45497</v>
+        <v>45397</v>
       </c>
       <c r="B53" t="n">
-        <v>321.9212695615391</v>
+        <v>182.89</v>
       </c>
       <c r="C53" t="n">
-        <v>64.71396559861094</v>
+        <v>30.40123456790123</v>
       </c>
       <c r="D53" t="n">
-        <v>39.21946788781275</v>
+        <v>-4.146043000236716</v>
       </c>
       <c r="E53" t="n">
-        <v>37.4578363030142</v>
+        <v>-3.114542120906477</v>
       </c>
       <c r="F53" t="n">
-        <v>315.946209663197</v>
+        <v>190.746</v>
       </c>
       <c r="G53" t="n">
-        <v>276.4466115177297</v>
+        <v>195.512</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2409,36 +2409,36 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>19353.01960508083</v>
+        <v>9315.438292670502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45498</v>
+        <v>45398</v>
       </c>
       <c r="B54" t="n">
-        <v>324.5018782119986</v>
+        <v>180.8</v>
       </c>
       <c r="C54" t="n">
-        <v>70.53177147696854</v>
+        <v>20.27600849256908</v>
       </c>
       <c r="D54" t="n">
-        <v>38.50094560185431</v>
+        <v>-4.086411067940332</v>
       </c>
       <c r="E54" t="n">
-        <v>37.66645816278223</v>
+        <v>-2.856666901073917</v>
       </c>
       <c r="F54" t="n">
-        <v>320.1827904823135</v>
+        <v>187.476</v>
       </c>
       <c r="G54" t="n">
-        <v>281.1971302140216</v>
+        <v>194.919</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2446,36 +2446,36 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>19508.15868574302</v>
+        <v>9208.984872408699</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45499</v>
+        <v>45399</v>
       </c>
       <c r="B55" t="n">
-        <v>348.3824667829894</v>
+        <v>180.08</v>
       </c>
       <c r="C55" t="n">
-        <v>68.09049956915899</v>
+        <v>18.23625476320096</v>
       </c>
       <c r="D55" t="n">
-        <v>39.40424779257154</v>
+        <v>-3.738060331548382</v>
       </c>
       <c r="E55" t="n">
-        <v>38.01401608874009</v>
+        <v>-2.549230859357313</v>
       </c>
       <c r="F55" t="n">
-        <v>330.1501234945551</v>
+        <v>184.398</v>
       </c>
       <c r="G55" t="n">
-        <v>287.8942097266055</v>
+        <v>194.2335</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2483,36 +2483,36 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>20943.79386270639</v>
+        <v>9172.311923801763</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="B56" t="n">
-        <v>349.2380771882603</v>
+        <v>181.25</v>
       </c>
       <c r="C56" t="n">
-        <v>70.88959007813705</v>
+        <v>15.8767772511849</v>
       </c>
       <c r="D56" t="n">
-        <v>39.73116574876678</v>
+        <v>-3.165757241367373</v>
       </c>
       <c r="E56" t="n">
-        <v>38.35744602074543</v>
+        <v>-2.252023491309545</v>
       </c>
       <c r="F56" t="n">
-        <v>333.946666851451</v>
+        <v>181.562</v>
       </c>
       <c r="G56" t="n">
-        <v>293.2897252679022</v>
+        <v>193.4795</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2520,36 +2520,36 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>20995.230802459</v>
+        <v>9231.905465288035</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45501</v>
+        <v>45401</v>
       </c>
       <c r="B57" t="n">
-        <v>351.4215993826205</v>
+        <v>185.8</v>
       </c>
       <c r="C57" t="n">
-        <v>83.20795346466295</v>
+        <v>18.20652173913052</v>
       </c>
       <c r="D57" t="n">
-        <v>39.70870533965206</v>
+        <v>-2.508370282752821</v>
       </c>
       <c r="E57" t="n">
-        <v>38.62769788452675</v>
+        <v>-2.023590053795088</v>
       </c>
       <c r="F57" t="n">
-        <v>339.0930582254816</v>
+        <v>182.164</v>
       </c>
       <c r="G57" t="n">
-        <v>297.2986333119513</v>
+        <v>192.8165</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2557,36 +2557,36 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>21126.49813963476</v>
+        <v>9463.658126623541</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45502</v>
+        <v>45404</v>
       </c>
       <c r="B58" t="n">
-        <v>384.0947956246612</v>
+        <v>189.41</v>
       </c>
       <c r="C58" t="n">
-        <v>83.58609379220218</v>
+        <v>20.85927770859284</v>
       </c>
       <c r="D58" t="n">
-        <v>41.84499611148107</v>
+        <v>-2.096092815099297</v>
       </c>
       <c r="E58" t="n">
-        <v>39.27115752991762</v>
+        <v>-1.902394996555655</v>
       </c>
       <c r="F58" t="n">
-        <v>351.527763438106</v>
+        <v>183.468</v>
       </c>
       <c r="G58" t="n">
-        <v>302.9666189633925</v>
+        <v>192.456</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2594,36 +2594,36 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>23090.72065992396</v>
+        <v>9647.532216166657</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45503</v>
+        <v>45405</v>
       </c>
       <c r="B59" t="n">
-        <v>379.7474843860886</v>
+        <v>192.14</v>
       </c>
       <c r="C59" t="n">
-        <v>80.73760633004292</v>
+        <v>25.35527299925221</v>
       </c>
       <c r="D59" t="n">
-        <v>42.6950680862019</v>
+        <v>-1.906951860892775</v>
       </c>
       <c r="E59" t="n">
-        <v>39.95593964117447</v>
+        <v>-1.853970541919744</v>
       </c>
       <c r="F59" t="n">
-        <v>362.576884672924</v>
+        <v>185.736</v>
       </c>
       <c r="G59" t="n">
-        <v>309.4793175756882</v>
+        <v>192.322</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2631,36 +2631,36 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>22829.37228818054</v>
+        <v>9786.58381296796</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45504</v>
+        <v>45406</v>
       </c>
       <c r="B60" t="n">
-        <v>362.4723292012094</v>
+        <v>193.08</v>
       </c>
       <c r="C60" t="n">
-        <v>68.39607166464427</v>
+        <v>22.28796844181478</v>
       </c>
       <c r="D60" t="n">
-        <v>41.49645035265996</v>
+        <v>-1.915765379547139</v>
       </c>
       <c r="E60" t="n">
-        <v>40.26404178347158</v>
+        <v>-1.840725212176487</v>
       </c>
       <c r="F60" t="n">
-        <v>365.394857156568</v>
+        <v>188.336</v>
       </c>
       <c r="G60" t="n">
-        <v>316.0894048125507</v>
+        <v>192.1895</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2668,36 +2668,36 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>21790.83756374578</v>
+        <v>9834.462384760353</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45505</v>
+        <v>45407</v>
       </c>
       <c r="B61" t="n">
-        <v>384.8609970326214</v>
+        <v>193.37</v>
       </c>
       <c r="C61" t="n">
-        <v>69.36297008486983</v>
+        <v>21.84278350515478</v>
       </c>
       <c r="D61" t="n">
-        <v>41.87045895991037</v>
+        <v>-1.994858046927106</v>
       </c>
       <c r="E61" t="n">
-        <v>40.58532521875934</v>
+        <v>-1.821965170333824</v>
       </c>
       <c r="F61" t="n">
-        <v>372.5194411254403</v>
+        <v>190.76</v>
       </c>
       <c r="G61" t="n">
-        <v>321.7470771891753</v>
+        <v>191.882</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2705,36 +2705,36 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>23136.78257714332</v>
+        <v>9849.233433504813</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45506</v>
+        <v>45408</v>
       </c>
       <c r="B62" t="n">
-        <v>391.8622408307678</v>
+        <v>193.49</v>
       </c>
       <c r="C62" t="n">
-        <v>71.81955042657763</v>
+        <v>21.51015228426414</v>
       </c>
       <c r="D62" t="n">
-        <v>42.24483319780876</v>
+        <v>-2.096320207154974</v>
       </c>
       <c r="E62" t="n">
-        <v>40.91722681456923</v>
+        <v>-1.778741951185503</v>
       </c>
       <c r="F62" t="n">
-        <v>380.6075694150696</v>
+        <v>192.298</v>
       </c>
       <c r="G62" t="n">
-        <v>328.1556302706232</v>
+        <v>191.5415</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2742,36 +2742,36 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>23557.67806090562</v>
+        <v>9855.345591605968</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45507</v>
+        <v>45411</v>
       </c>
       <c r="B63" t="n">
-        <v>391.6368647476382</v>
+        <v>193.28</v>
       </c>
       <c r="C63" t="n">
-        <v>77.90840863568037</v>
+        <v>17.79518746502532</v>
       </c>
       <c r="D63" t="n">
-        <v>42.03874502773238</v>
+        <v>-2.207549070468986</v>
       </c>
       <c r="E63" t="n">
-        <v>41.14153045720186</v>
+        <v>-1.699347387193135</v>
       </c>
       <c r="F63" t="n">
-        <v>382.1159832396651</v>
+        <v>193.072</v>
       </c>
       <c r="G63" t="n">
-        <v>336.0465444932411</v>
+        <v>191.2585</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2779,36 +2779,36 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>23544.1290718585</v>
+        <v>9844.649314928945</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45508</v>
+        <v>45412</v>
       </c>
       <c r="B64" t="n">
-        <v>361.5433816766762</v>
+        <v>191.74</v>
       </c>
       <c r="C64" t="n">
-        <v>67.16102552884472</v>
+        <v>42.48238057948316</v>
       </c>
       <c r="D64" t="n">
-        <v>38.99758618765009</v>
+        <v>-2.296025924073888</v>
       </c>
       <c r="E64" t="n">
-        <v>40.71274160329151</v>
+        <v>-1.572296966374172</v>
       </c>
       <c r="F64" t="n">
-        <v>378.4751626977826</v>
+        <v>192.992</v>
       </c>
       <c r="G64" t="n">
-        <v>341.0030905799759</v>
+        <v>190.9025</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2816,36 +2816,36 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>21734.9917984788</v>
+        <v>9766.209952630774</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45509</v>
+        <v>45413</v>
       </c>
       <c r="B65" t="n">
-        <v>366.983601046752</v>
+        <v>191.86</v>
       </c>
       <c r="C65" t="n">
-        <v>61.67613714581312</v>
+        <v>36.95504087193463</v>
       </c>
       <c r="D65" t="n">
-        <v>36.60447255969825</v>
+        <v>-2.218757821961219</v>
       </c>
       <c r="E65" t="n">
-        <v>39.89108779457285</v>
+        <v>-1.391364726949243</v>
       </c>
       <c r="F65" t="n">
-        <v>379.3774170668911</v>
+        <v>192.748</v>
       </c>
       <c r="G65" t="n">
-        <v>345.8033217091642</v>
+        <v>190.5805</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2853,36 +2853,36 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>22062.04279535271</v>
+        <v>9772.322110731931</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45510</v>
+        <v>45414</v>
       </c>
       <c r="B66" t="n">
-        <v>353.5269286509775</v>
+        <v>191.66</v>
       </c>
       <c r="C66" t="n">
-        <v>58.37614534815118</v>
+        <v>39.05169575238723</v>
       </c>
       <c r="D66" t="n">
-        <v>33.23891425483436</v>
+        <v>-2.100080966945285</v>
       </c>
       <c r="E66" t="n">
-        <v>38.56065308662516</v>
+        <v>-1.184516453196249</v>
       </c>
       <c r="F66" t="n">
-        <v>373.1106033905623</v>
+        <v>192.406</v>
       </c>
       <c r="G66" t="n">
-        <v>348.3454048232829</v>
+        <v>190.381</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2890,36 +2890,36 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>21253.06473357606</v>
+        <v>9762.135180563337</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45511</v>
+        <v>45415</v>
       </c>
       <c r="B67" t="n">
-        <v>330.7320541148988</v>
+        <v>190.51</v>
       </c>
       <c r="C67" t="n">
-        <v>52.37876610693371</v>
+        <v>39.52956550147013</v>
       </c>
       <c r="D67" t="n">
-        <v>28.40489522957188</v>
+        <v>-1.897695876114852</v>
       </c>
       <c r="E67" t="n">
-        <v>36.52950151521451</v>
+        <v>-0.9556253247589899</v>
       </c>
       <c r="F67" t="n">
-        <v>360.8845660473886</v>
+        <v>191.81</v>
       </c>
       <c r="G67" t="n">
-        <v>348.884733433683</v>
+        <v>190.034</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2927,73 +2927,73 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>60.11724429218327</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>19882.69969248095</v>
+        <v>9703.560332093923</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45512</v>
+        <v>45418</v>
       </c>
       <c r="B68" t="n">
-        <v>309.7235918011442</v>
+        <v>192</v>
       </c>
       <c r="C68" t="n">
-        <v>46.371189398824</v>
+        <v>36.76694013977515</v>
       </c>
       <c r="D68" t="n">
-        <v>22.61796714509723</v>
+        <v>-1.494685147438673</v>
       </c>
       <c r="E68" t="n">
-        <v>33.74719464119105</v>
+        <v>-0.7201076869200242</v>
       </c>
       <c r="F68" t="n">
-        <v>344.5019114580897</v>
+        <v>191.554</v>
       </c>
       <c r="G68" t="n">
-        <v>348.5229669497645</v>
+        <v>189.71</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J68" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>18619.72883136184</v>
+        <v>9779.452961849945</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45513</v>
+        <v>45419</v>
       </c>
       <c r="B69" t="n">
-        <v>291.5890705940804</v>
+        <v>191.75</v>
       </c>
       <c r="C69" t="n">
-        <v>35.6494138989479</v>
+        <v>38.5591969294361</v>
       </c>
       <c r="D69" t="n">
-        <v>16.37966604649694</v>
+        <v>-1.110265124329231</v>
       </c>
       <c r="E69" t="n">
-        <v>30.27368892225223</v>
+        <v>-0.526463321790362</v>
       </c>
       <c r="F69" t="n">
-        <v>330.5110492415706</v>
+        <v>191.556</v>
       </c>
       <c r="G69" t="n">
-        <v>347.9364717736477</v>
+        <v>189.44</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3001,36 +3001,36 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J69" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>18619.72883136184</v>
+        <v>9766.719299139204</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45514</v>
+        <v>45420</v>
       </c>
       <c r="B70" t="n">
-        <v>272.853371768702</v>
+        <v>195.65</v>
       </c>
       <c r="C70" t="n">
-        <v>32.29855618594736</v>
+        <v>46.07780612244897</v>
       </c>
       <c r="D70" t="n">
-        <v>9.810859683500723</v>
+        <v>-0.5780015293884162</v>
       </c>
       <c r="E70" t="n">
-        <v>26.18112307450193</v>
+        <v>-0.3805128711556446</v>
       </c>
       <c r="F70" t="n">
-        <v>311.6850033859606</v>
+        <v>192.314</v>
       </c>
       <c r="G70" t="n">
-        <v>346.6518502759937</v>
+        <v>189.449</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3038,36 +3038,36 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J70" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>18619.72883136184</v>
+        <v>9965.364437426781</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45515</v>
+        <v>45421</v>
       </c>
       <c r="B71" t="n">
-        <v>258.3371973629932</v>
+        <v>197.5</v>
       </c>
       <c r="C71" t="n">
-        <v>29.59490313939328</v>
+        <v>47.02245362837616</v>
       </c>
       <c r="D71" t="n">
-        <v>3.394568880316115</v>
+        <v>-0.2873232459637336</v>
       </c>
       <c r="E71" t="n">
-        <v>21.62381223566477</v>
+        <v>-0.3311407065974517</v>
       </c>
       <c r="F71" t="n">
-        <v>292.6470571283638</v>
+        <v>193.482</v>
       </c>
       <c r="G71" t="n">
-        <v>343.0559421239544</v>
+        <v>189.5525</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3075,36 +3075,36 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J71" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>18619.72883136184</v>
+        <v>10059.59354148627</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45516</v>
+        <v>45422</v>
       </c>
       <c r="B72" t="n">
-        <v>240.566562980997</v>
+        <v>198.77</v>
       </c>
       <c r="C72" t="n">
-        <v>16.33771609390594</v>
+        <v>44.10866910866913</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.088724592883125</v>
+        <v>-0.1004964442695098</v>
       </c>
       <c r="E72" t="n">
-        <v>16.68130486995519</v>
+        <v>-0.3420950717558812</v>
       </c>
       <c r="F72" t="n">
-        <v>274.6139589015834</v>
+        <v>195.134</v>
       </c>
       <c r="G72" t="n">
-        <v>338.7997881473808</v>
+        <v>190.3515</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3112,36 +3112,36 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J72" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>18619.72883136184</v>
+        <v>10124.28054805684</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45517</v>
+        <v>45425</v>
       </c>
       <c r="B73" t="n">
-        <v>207.1766735921578</v>
+        <v>198.73</v>
       </c>
       <c r="C73" t="n">
-        <v>14.37888648966594</v>
+        <v>45.39218610199821</v>
       </c>
       <c r="D73" t="n">
-        <v>-10.79660980554911</v>
+        <v>0.0101151672641322</v>
       </c>
       <c r="E73" t="n">
-        <v>11.18572193485433</v>
+        <v>-0.4024947286274741</v>
       </c>
       <c r="F73" t="n">
-        <v>254.1045752597861</v>
+        <v>196.48</v>
       </c>
       <c r="G73" t="n">
-        <v>333.0625583489117</v>
+        <v>191.1435</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3149,36 +3149,36 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J73" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>18619.72883136184</v>
+        <v>10122.24316202312</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45518</v>
+        <v>45426</v>
       </c>
       <c r="B74" t="n">
-        <v>205.209777491254</v>
+        <v>201.51</v>
       </c>
       <c r="C74" t="n">
-        <v>15.34888909154155</v>
+        <v>53.51691110445973</v>
       </c>
       <c r="D74" t="n">
-        <v>-16.86941631576633</v>
+        <v>0.1552214035523605</v>
       </c>
       <c r="E74" t="n">
-        <v>5.574694284730198</v>
+        <v>-0.5056472026003757</v>
       </c>
       <c r="F74" t="n">
-        <v>236.8287166392208</v>
+        <v>198.432</v>
       </c>
       <c r="G74" t="n">
-        <v>327.0979533128744</v>
+        <v>192.179</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3186,36 +3186,36 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J74" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>18619.72883136184</v>
+        <v>10263.84149136657</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45519</v>
+        <v>45427</v>
       </c>
       <c r="B75" t="n">
-        <v>242.7969373536095</v>
+        <v>202.11</v>
       </c>
       <c r="C75" t="n">
-        <v>20.66262730478827</v>
+        <v>56.98645923365028</v>
       </c>
       <c r="D75" t="n">
-        <v>-18.43666317873135</v>
+        <v>0.05511741563580586</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7724227920378883</v>
+        <v>-0.6708643541385596</v>
       </c>
       <c r="F75" t="n">
-        <v>230.8174297562023</v>
+        <v>199.724</v>
       </c>
       <c r="G75" t="n">
-        <v>321.8186768414055</v>
+        <v>193.2805</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3223,36 +3223,36 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J75" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>18619.72883136184</v>
+        <v>10294.40228187236</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45520</v>
+        <v>45428</v>
       </c>
       <c r="B76" t="n">
-        <v>256.9671616916752</v>
+        <v>202.47</v>
       </c>
       <c r="C76" t="n">
-        <v>22.94417661594458</v>
+        <v>58.01152737752162</v>
       </c>
       <c r="D76" t="n">
-        <v>-18.32407045261914</v>
+        <v>-0.1345442913505792</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.046875856893517</v>
+        <v>-0.8523597965821509</v>
       </c>
       <c r="F76" t="n">
-        <v>230.5434226219387</v>
+        <v>200.718</v>
       </c>
       <c r="G76" t="n">
-        <v>317.2051310665763</v>
+        <v>194.3415</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3260,36 +3260,36 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J76" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>18619.72883136184</v>
+        <v>10312.73875617583</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45521</v>
+        <v>45429</v>
       </c>
       <c r="B77" t="n">
-        <v>274.1380702599691</v>
+        <v>204.79</v>
       </c>
       <c r="C77" t="n">
-        <v>27.93332335359584</v>
+        <v>56.83229813664597</v>
       </c>
       <c r="D77" t="n">
-        <v>-16.65727637454626</v>
+        <v>-0.4113191349389922</v>
       </c>
       <c r="E77" t="n">
-        <v>-5.768955960424066</v>
+        <v>-1.031813672890044</v>
       </c>
       <c r="F77" t="n">
-        <v>237.2577240777331</v>
+        <v>201.922</v>
       </c>
       <c r="G77" t="n">
-        <v>313.3409546104437</v>
+        <v>195.291</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3297,36 +3297,36 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J77" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>18619.72883136184</v>
+        <v>10430.90714613151</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45522</v>
+        <v>45432</v>
       </c>
       <c r="B78" t="n">
-        <v>253.8501164835034</v>
+        <v>195.58</v>
       </c>
       <c r="C78" t="n">
-        <v>29.0014538813959</v>
+        <v>42.4105461393597</v>
       </c>
       <c r="D78" t="n">
-        <v>-16.77996933401306</v>
+        <v>-0.9948198387927221</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.971158635141865</v>
+        <v>-1.186937307377807</v>
       </c>
       <c r="F78" t="n">
-        <v>246.5924126560023</v>
+        <v>201.292</v>
       </c>
       <c r="G78" t="n">
-        <v>306.8287206533858</v>
+        <v>195.5995</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3334,36 +3334,36 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J78" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>18619.72883136184</v>
+        <v>9961.799011867774</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45523</v>
+        <v>45433</v>
       </c>
       <c r="B79" t="n">
-        <v>280.1803320914402</v>
+        <v>199.52</v>
       </c>
       <c r="C79" t="n">
-        <v>34.34963588518056</v>
+        <v>59.26058865757358</v>
       </c>
       <c r="D79" t="n">
-        <v>-14.5844555149107</v>
+        <v>-0.7873633576926693</v>
       </c>
       <c r="E79" t="n">
-        <v>-9.293818011095633</v>
+        <v>-1.234966674524078</v>
       </c>
       <c r="F79" t="n">
-        <v>261.5865235760395</v>
+        <v>200.894</v>
       </c>
       <c r="G79" t="n">
-        <v>301.8503630386534</v>
+        <v>195.9685</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3371,36 +3371,36 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J79" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>18619.72883136184</v>
+        <v>10162.48153618907</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45524</v>
+        <v>45434</v>
       </c>
       <c r="B80" t="n">
-        <v>300.090419521037</v>
+        <v>198.31</v>
       </c>
       <c r="C80" t="n">
-        <v>40.58466147670935</v>
+        <v>61.49932157394845</v>
       </c>
       <c r="D80" t="n">
-        <v>-11.10984990140213</v>
+        <v>-0.9122845275222176</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.657024389156932</v>
+        <v>-1.34686750373193</v>
       </c>
       <c r="F80" t="n">
-        <v>273.045220009525</v>
+        <v>200.134</v>
       </c>
       <c r="G80" t="n">
-        <v>298.7312675546447</v>
+        <v>196.23</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3408,36 +3408,36 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J80" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>18619.72883136184</v>
+        <v>10100.85060866908</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45525</v>
+        <v>45435</v>
       </c>
       <c r="B81" t="n">
-        <v>318.3273135648558</v>
+        <v>196.92</v>
       </c>
       <c r="C81" t="n">
-        <v>47.77864574764481</v>
+        <v>55.39377895433487</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.806177603546359</v>
+        <v>-0.935259772977048</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.086855032034819</v>
+        <v>-1.455513247784357</v>
       </c>
       <c r="F81" t="n">
-        <v>285.3172503841611</v>
+        <v>199.024</v>
       </c>
       <c r="G81" t="n">
-        <v>295.4045833812564</v>
+        <v>196.4075</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3445,36 +3445,36 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J81" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>18619.72883136184</v>
+        <v>10030.05144399735</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45526</v>
+        <v>45436</v>
       </c>
       <c r="B82" t="n">
-        <v>301.8583518708527</v>
+        <v>200.71</v>
       </c>
       <c r="C82" t="n">
-        <v>48.56827068231933</v>
+        <v>63.05084745762716</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.670554626644787</v>
+        <v>-0.8094534895687957</v>
       </c>
       <c r="E82" t="n">
-        <v>-8.203594950956813</v>
+        <v>-1.585576616486184</v>
       </c>
       <c r="F82" t="n">
-        <v>290.8613067063378</v>
+        <v>198.208</v>
       </c>
       <c r="G82" t="n">
-        <v>290.9043889332607</v>
+        <v>196.7685</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3482,36 +3482,36 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J82" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>18619.72883136184</v>
+        <v>10223.0937706922</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45527</v>
+        <v>45440</v>
       </c>
       <c r="B83" t="n">
-        <v>299.2421383118828</v>
+        <v>199.5</v>
       </c>
       <c r="C83" t="n">
-        <v>51.47652596427851</v>
+        <v>58.51544837980411</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.152820844583971</v>
+        <v>-1.022995964352191</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.193440129682244</v>
+        <v>-1.779607398215532</v>
       </c>
       <c r="F83" t="n">
-        <v>299.9397110720137</v>
+        <v>198.992</v>
       </c>
       <c r="G83" t="n">
-        <v>286.2846526114729</v>
+        <v>197.0795</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3519,36 +3519,36 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J83" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>18619.72883136184</v>
+        <v>10161.46284317221</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45528</v>
+        <v>45441</v>
       </c>
       <c r="B84" t="n">
-        <v>296.6456440370899</v>
+        <v>198.11</v>
       </c>
       <c r="C84" t="n">
-        <v>54.89515241847587</v>
+        <v>52.04269414795733</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.134911346718297</v>
+        <v>-1.157473872685159</v>
       </c>
       <c r="E84" t="n">
-        <v>-6.181734373089455</v>
+        <v>-1.968760256681366</v>
       </c>
       <c r="F84" t="n">
-        <v>303.2327734611437</v>
+        <v>198.71</v>
       </c>
       <c r="G84" t="n">
-        <v>283.0397657294936</v>
+        <v>197.398</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3556,36 +3556,36 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J84" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>18619.72883136184</v>
+        <v>10090.66367850048</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45529</v>
+        <v>45442</v>
       </c>
       <c r="B85" t="n">
-        <v>294.5136764588439</v>
+        <v>199.33</v>
       </c>
       <c r="C85" t="n">
-        <v>57.84281601431377</v>
+        <v>51.19478638667638</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.483145919057165</v>
+        <v>-1.170753328445613</v>
       </c>
       <c r="E85" t="n">
-        <v>-5.242016682282998</v>
+        <v>-2.171581852680418</v>
       </c>
       <c r="F85" t="n">
-        <v>302.117424848705</v>
+        <v>198.914</v>
       </c>
       <c r="G85" t="n">
-        <v>279.4162695000982</v>
+        <v>197.7715</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3593,36 +3593,36 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J85" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>18619.72883136184</v>
+        <v>10152.8039525289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45530</v>
+        <v>45443</v>
       </c>
       <c r="B86" t="n">
-        <v>234.3567856074623</v>
+        <v>202.63</v>
       </c>
       <c r="C86" t="n">
-        <v>48.86276460440347</v>
+        <v>61.85837392281753</v>
       </c>
       <c r="D86" t="n">
-        <v>-5.754441838019147</v>
+        <v>-1.294891785384323</v>
       </c>
       <c r="E86" t="n">
-        <v>-5.344501713430228</v>
+        <v>-2.421788983739119</v>
       </c>
       <c r="F86" t="n">
-        <v>285.3233192572263</v>
+        <v>200.056</v>
       </c>
       <c r="G86" t="n">
-        <v>273.4577623479225</v>
+        <v>198.32</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3630,73 +3630,73 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J86" t="n">
-        <v>18619.72883136184</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>18619.72883136184</v>
+        <v>10320.8883003107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45531</v>
+        <v>45446</v>
       </c>
       <c r="B87" t="n">
-        <v>297.1271724749261</v>
+        <v>201.82</v>
       </c>
       <c r="C87" t="n">
-        <v>64.87270597073748</v>
+        <v>55.16514406184119</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.027996761305417</v>
+        <v>-1.770502808089589</v>
       </c>
       <c r="E87" t="n">
-        <v>-5.081200723005266</v>
+        <v>-2.703513283327818</v>
       </c>
       <c r="F87" t="n">
-        <v>284.377083378041</v>
+        <v>200.278</v>
       </c>
       <c r="G87" t="n">
-        <v>271.7775182659238</v>
+        <v>198.8855</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>18619.72883136184</v>
+        <v>10279.6312331279</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45532</v>
+        <v>45447</v>
       </c>
       <c r="B88" t="n">
-        <v>305.2283579182353</v>
+        <v>199.16</v>
       </c>
       <c r="C88" t="n">
-        <v>66.20859936661248</v>
+        <v>52.04810221721159</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.983217343772196</v>
+        <v>-2.269329927133867</v>
       </c>
       <c r="E88" t="n">
-        <v>-4.461604047158652</v>
+        <v>-2.936765902137375</v>
       </c>
       <c r="F88" t="n">
-        <v>285.5743272993115</v>
+        <v>200.21</v>
       </c>
       <c r="G88" t="n">
-        <v>271.5527565717784</v>
+        <v>199.2435</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3704,36 +3704,36 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>19127.39655798056</v>
+        <v>10144.1450618856</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45533</v>
+        <v>45448</v>
       </c>
       <c r="B89" t="n">
-        <v>328.9616927842892</v>
+        <v>197.26</v>
       </c>
       <c r="C89" t="n">
-        <v>64.61996959851928</v>
+        <v>49.66469428007886</v>
       </c>
       <c r="D89" t="n">
-        <v>1.534676062057542</v>
+        <v>-2.602169923773857</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.262348025315414</v>
+        <v>-3.103624895888252</v>
       </c>
       <c r="F89" t="n">
-        <v>292.0375370487513</v>
+        <v>200.04</v>
       </c>
       <c r="G89" t="n">
-        <v>273.4213876812888</v>
+        <v>199.519</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3741,36 +3741,36 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>20614.66632125716</v>
+        <v>10047.36922528396</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45534</v>
+        <v>45449</v>
       </c>
       <c r="B90" t="n">
-        <v>341.8469488067921</v>
+        <v>196.91</v>
       </c>
       <c r="C90" t="n">
-        <v>64.46501826392119</v>
+        <v>45.77412116679132</v>
       </c>
       <c r="D90" t="n">
-        <v>5.301254839792705</v>
+        <v>-2.79569050241227</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.54962745229379</v>
+        <v>-3.22898863891685</v>
       </c>
       <c r="F90" t="n">
-        <v>301.504191518341</v>
+        <v>199.556</v>
       </c>
       <c r="G90" t="n">
-        <v>276.8710665331934</v>
+        <v>199.582</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3778,36 +3778,36 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>21422.13192954622</v>
+        <v>10029.54209748892</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45535</v>
+        <v>45450</v>
       </c>
       <c r="B91" t="n">
-        <v>343.277866114396</v>
+        <v>199.95</v>
       </c>
       <c r="C91" t="n">
-        <v>62.45058755695712</v>
+        <v>45.68868980963044</v>
       </c>
       <c r="D91" t="n">
-        <v>8.306012187743988</v>
+        <v>-2.966392179112006</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4215004757137657</v>
+        <v>-3.337313173042994</v>
       </c>
       <c r="F91" t="n">
-        <v>323.2884076197277</v>
+        <v>199.02</v>
       </c>
       <c r="G91" t="n">
-        <v>281.1180999707634</v>
+        <v>199.7045</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3815,36 +3815,36 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>21511.80158858737</v>
+        <v>10184.38343605154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45536</v>
+        <v>45453</v>
       </c>
       <c r="B92" t="n">
-        <v>347.317038007452</v>
+        <v>199.61</v>
       </c>
       <c r="C92" t="n">
-        <v>67.87759548115815</v>
+        <v>40.14844804318491</v>
       </c>
       <c r="D92" t="n">
-        <v>10.88772453800379</v>
+        <v>-3.450649342039867</v>
       </c>
       <c r="E92" t="n">
-        <v>2.514745288171772</v>
+        <v>-3.430043421525741</v>
       </c>
       <c r="F92" t="n">
-        <v>333.3263807262329</v>
+        <v>198.578</v>
       </c>
       <c r="G92" t="n">
-        <v>286.4556237220862</v>
+        <v>199.7465</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3852,36 +3852,36 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>21764.91975588763</v>
+        <v>10167.06565476494</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45537</v>
+        <v>45454</v>
       </c>
       <c r="B93" t="n">
-        <v>319.6640885199199</v>
+        <v>194.36</v>
       </c>
       <c r="C93" t="n">
-        <v>57.51411135576005</v>
+        <v>23.94670507742163</v>
       </c>
       <c r="D93" t="n">
-        <v>10.58042371896829</v>
+        <v>-3.983928130474453</v>
       </c>
       <c r="E93" t="n">
-        <v>4.127880974331076</v>
+        <v>-3.42489194139721</v>
       </c>
       <c r="F93" t="n">
-        <v>336.2135268465698</v>
+        <v>197.618</v>
       </c>
       <c r="G93" t="n">
-        <v>292.0799944684743</v>
+        <v>199.528</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3889,36 +3889,36 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>20032.0239841667</v>
+        <v>9899.658737839352</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45538</v>
+        <v>45455</v>
       </c>
       <c r="B94" t="n">
-        <v>345.0700911765093</v>
+        <v>191.53</v>
       </c>
       <c r="C94" t="n">
-        <v>58.38463955551256</v>
+        <v>15.78947368421048</v>
       </c>
       <c r="D94" t="n">
-        <v>12.24577601034679</v>
+        <v>-4.072092283996795</v>
       </c>
       <c r="E94" t="n">
-        <v>5.751459981534218</v>
+        <v>-3.285132894127899</v>
       </c>
       <c r="F94" t="n">
-        <v>339.4352065250138</v>
+        <v>196.472</v>
       </c>
       <c r="G94" t="n">
-        <v>299.0730101527371</v>
+        <v>199.029</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3926,36 +3926,36 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>21624.11290762076</v>
+        <v>9755.513675953751</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45539</v>
+        <v>45456</v>
       </c>
       <c r="B95" t="n">
-        <v>366.6751159888568</v>
+        <v>193.66</v>
       </c>
       <c r="C95" t="n">
-        <v>58.90072453941568</v>
+        <v>29.27374301675977</v>
       </c>
       <c r="D95" t="n">
-        <v>15.13446396143917</v>
+        <v>-3.837245915816283</v>
       </c>
       <c r="E95" t="n">
-        <v>7.628060777515208</v>
+        <v>-3.088393046660674</v>
       </c>
       <c r="F95" t="n">
-        <v>344.4008399614268</v>
+        <v>195.822</v>
       </c>
       <c r="G95" t="n">
-        <v>305.2669190844994</v>
+        <v>198.6065</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3963,36 +3963,36 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>22978.01029791986</v>
+        <v>9864.004482249273</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45540</v>
+        <v>45457</v>
       </c>
       <c r="B96" t="n">
-        <v>380.5151628009999</v>
+        <v>193.78</v>
       </c>
       <c r="C96" t="n">
-        <v>64.62208178907244</v>
+        <v>28.99299151604573</v>
       </c>
       <c r="D96" t="n">
-        <v>18.32925781170877</v>
+        <v>-3.698554792563101</v>
       </c>
       <c r="E96" t="n">
-        <v>9.768300184353922</v>
+        <v>-2.901179829371772</v>
       </c>
       <c r="F96" t="n">
-        <v>351.8482992987476</v>
+        <v>194.588</v>
       </c>
       <c r="G96" t="n">
-        <v>311.4443191399656</v>
+        <v>198.172</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4000,36 +4000,36 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>23845.30868907325</v>
+        <v>9870.11664035043</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45541</v>
+        <v>45460</v>
       </c>
       <c r="B97" t="n">
-        <v>362.1109814415005</v>
+        <v>194.98</v>
       </c>
       <c r="C97" t="n">
-        <v>61.03915748805623</v>
+        <v>27.7053225237927</v>
       </c>
       <c r="D97" t="n">
-        <v>19.15528117214001</v>
+        <v>-3.479955507355413</v>
       </c>
       <c r="E97" t="n">
-        <v>11.64569638191114</v>
+        <v>-2.701836088573939</v>
       </c>
       <c r="F97" t="n">
-        <v>354.8070879855573</v>
+        <v>193.662</v>
       </c>
       <c r="G97" t="n">
-        <v>315.8429646990422</v>
+        <v>197.6815</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4037,36 +4037,36 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>22691.99489611815</v>
+        <v>9931.238221361991</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45542</v>
+        <v>45461</v>
       </c>
       <c r="B98" t="n">
-        <v>359.4594159342972</v>
+        <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v>61.02735483074136</v>
+        <v>29.63800904977373</v>
       </c>
       <c r="D98" t="n">
-        <v>19.37263577393009</v>
+        <v>-3.272507612310619</v>
       </c>
       <c r="E98" t="n">
-        <v>13.19108426031493</v>
+        <v>-2.507306233878571</v>
       </c>
       <c r="F98" t="n">
-        <v>362.7661534684327</v>
+        <v>194.19</v>
       </c>
       <c r="G98" t="n">
-        <v>321.1234296715819</v>
+        <v>197.7525</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4074,36 +4074,36 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>22525.83227184021</v>
+        <v>10034.12621606479</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45543</v>
+        <v>45463</v>
       </c>
       <c r="B99" t="n">
-        <v>357.4267619661664</v>
+        <v>198.67</v>
       </c>
       <c r="C99" t="n">
-        <v>61.04864265387175</v>
+        <v>32.57936507936509</v>
       </c>
       <c r="D99" t="n">
-        <v>19.16000802831445</v>
+        <v>-3.165801279183484</v>
       </c>
       <c r="E99" t="n">
-        <v>14.38486901391484</v>
+        <v>-2.316005889270558</v>
       </c>
       <c r="F99" t="n">
-        <v>365.2374876263642</v>
+        <v>195.618</v>
       </c>
       <c r="G99" t="n">
-        <v>324.9857511653183</v>
+        <v>197.71</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4111,36 +4111,36 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>22398.45426942011</v>
+        <v>10119.18708297254</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45544</v>
+        <v>45464</v>
       </c>
       <c r="B100" t="n">
-        <v>371.4397562207232</v>
+        <v>196.3</v>
       </c>
       <c r="C100" t="n">
-        <v>78.73065724217614</v>
+        <v>32.95185477505925</v>
       </c>
       <c r="D100" t="n">
-        <v>19.89291736441135</v>
+        <v>-3.153593540840319</v>
       </c>
       <c r="E100" t="n">
-        <v>15.48647868401414</v>
+        <v>-2.103557041792326</v>
       </c>
       <c r="F100" t="n">
-        <v>366.1904156727375</v>
+        <v>196.146</v>
       </c>
       <c r="G100" t="n">
-        <v>328.5532180003025</v>
+        <v>197.6095</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4148,36 +4148,36 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>23276.5905602277</v>
+        <v>9998.47196047471</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45545</v>
+        <v>45467</v>
       </c>
       <c r="B101" t="n">
-        <v>371.4356683826456</v>
+        <v>198.88</v>
       </c>
       <c r="C101" t="n">
-        <v>71.13445997153228</v>
+        <v>29.96053103695732</v>
       </c>
       <c r="D101" t="n">
-        <v>20.24010807239659</v>
+        <v>-2.85083248512467</v>
       </c>
       <c r="E101" t="n">
-        <v>16.43720456169063</v>
+        <v>-1.841047917030328</v>
       </c>
       <c r="F101" t="n">
-        <v>364.3745167890666</v>
+        <v>197.166</v>
       </c>
       <c r="G101" t="n">
-        <v>331.2086357411921</v>
+        <v>197.7075</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4185,36 +4185,36 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>23276.33439235225</v>
+        <v>10129.88335964957</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45546</v>
+        <v>45468</v>
       </c>
       <c r="B102" t="n">
-        <v>365.575250606533</v>
+        <v>198.07</v>
       </c>
       <c r="C102" t="n">
-        <v>67.3851630234056</v>
+        <v>24.61638916095335</v>
       </c>
       <c r="D102" t="n">
-        <v>19.81396936776758</v>
+        <v>-2.685623537863961</v>
       </c>
       <c r="E102" t="n">
-        <v>17.11255752290602</v>
+        <v>-1.588601775006743</v>
       </c>
       <c r="F102" t="n">
-        <v>365.0673706220731</v>
+        <v>197.784</v>
       </c>
       <c r="G102" t="n">
-        <v>334.394480677976</v>
+        <v>197.5755</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4222,36 +4222,36 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>22909.08629141016</v>
+        <v>10088.62629246676</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45547</v>
+        <v>45469</v>
       </c>
       <c r="B103" t="n">
-        <v>350.2753238467065</v>
+        <v>197.43</v>
       </c>
       <c r="C103" t="n">
-        <v>56.45377916876611</v>
+        <v>20.75812274368236</v>
       </c>
       <c r="D103" t="n">
-        <v>18.03379281358178</v>
+        <v>-2.353220502809535</v>
       </c>
       <c r="E103" t="n">
-        <v>17.29680458104117</v>
+        <v>-1.314346334292438</v>
       </c>
       <c r="F103" t="n">
-        <v>363.230552204555</v>
+        <v>197.87</v>
       </c>
       <c r="G103" t="n">
-        <v>336.9461399547173</v>
+        <v>197.472</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4259,36 +4259,36 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>21950.30327256086</v>
+        <v>10056.02811592727</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45548</v>
+        <v>45470</v>
       </c>
       <c r="B104" t="n">
-        <v>310.1966641516736</v>
+        <v>199.17</v>
       </c>
       <c r="C104" t="n">
-        <v>41.77139272173866</v>
+        <v>35.92081271164369</v>
       </c>
       <c r="D104" t="n">
-        <v>13.2363962462988</v>
+        <v>-1.829561058026513</v>
       </c>
       <c r="E104" t="n">
-        <v>16.4847229140927</v>
+        <v>-1.054627792163164</v>
       </c>
       <c r="F104" t="n">
-        <v>353.7845326416564</v>
+        <v>197.97</v>
       </c>
       <c r="G104" t="n">
-        <v>337.6236909604464</v>
+        <v>197.525</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4296,36 +4296,36 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>19438.73972477084</v>
+        <v>10144.65440839403</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45549</v>
+        <v>45471</v>
       </c>
       <c r="B105" t="n">
-        <v>272.9911083585033</v>
+        <v>202.26</v>
       </c>
       <c r="C105" t="n">
-        <v>34.59253808152975</v>
+        <v>39.40845070422536</v>
       </c>
       <c r="D105" t="n">
-        <v>6.358945524940452</v>
+        <v>-1.311733024023027</v>
       </c>
       <c r="E105" t="n">
-        <v>14.45956743626225</v>
+        <v>-0.8608944756973265</v>
       </c>
       <c r="F105" t="n">
-        <v>334.0948030692124</v>
+        <v>199.162</v>
       </c>
       <c r="G105" t="n">
-        <v>336.5475625554294</v>
+        <v>197.6715</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4333,36 +4333,36 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>17107.22169456647</v>
+        <v>10302.0424794988</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45550</v>
+        <v>45474</v>
       </c>
       <c r="B106" t="n">
-        <v>284.168964394916</v>
+        <v>205.45</v>
       </c>
       <c r="C106" t="n">
-        <v>36.57748640734714</v>
+        <v>42.63943919536727</v>
       </c>
       <c r="D106" t="n">
-        <v>1.789843640456809</v>
+        <v>-0.9463345802728327</v>
       </c>
       <c r="E106" t="n">
-        <v>11.92562267710116</v>
+        <v>-0.7481848386159012</v>
       </c>
       <c r="F106" t="n">
-        <v>316.6414622716665</v>
+        <v>200.476</v>
       </c>
       <c r="G106" t="n">
-        <v>339.0381714948021</v>
+        <v>197.8125</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4370,36 +4370,36 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>17807.6916198863</v>
+        <v>10464.52401568787</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45551</v>
+        <v>45475</v>
       </c>
       <c r="B107" t="n">
-        <v>265.2333529363436</v>
+        <v>208.83</v>
       </c>
       <c r="C107" t="n">
-        <v>37.98515873734685</v>
+        <v>47.45590230664858</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.320867224599738</v>
+        <v>-0.7909884272640113</v>
       </c>
       <c r="E107" t="n">
-        <v>8.876324696760983</v>
+        <v>-0.6986474032016683</v>
       </c>
       <c r="F107" t="n">
-        <v>296.5730827376286</v>
+        <v>202.628</v>
       </c>
       <c r="G107" t="n">
-        <v>337.443480517873</v>
+        <v>198.163</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4407,36 +4407,36 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>16621.07530446197</v>
+        <v>10636.68313553711</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45552</v>
+        <v>45476</v>
       </c>
       <c r="B108" t="n">
-        <v>262.7397044403349</v>
+        <v>208.69</v>
       </c>
       <c r="C108" t="n">
-        <v>29.78156071599534</v>
+        <v>50.16087516087516</v>
       </c>
       <c r="D108" t="n">
-        <v>-7.486064309729102</v>
+        <v>-0.9253504148452976</v>
       </c>
       <c r="E108" t="n">
-        <v>5.603846895462967</v>
+        <v>-0.6755621471860824</v>
       </c>
       <c r="F108" t="n">
-        <v>279.0659588563543</v>
+        <v>204.88</v>
       </c>
       <c r="G108" t="n">
-        <v>335.319047843978</v>
+        <v>198.6395</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4444,36 +4444,36 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>16464.80868498834</v>
+        <v>10629.55228441909</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45553</v>
+        <v>45478</v>
       </c>
       <c r="B109" t="n">
-        <v>292.270759847249</v>
+        <v>204.79</v>
       </c>
       <c r="C109" t="n">
-        <v>32.41266776056368</v>
+        <v>42.88334556126194</v>
       </c>
       <c r="D109" t="n">
-        <v>-8.308330377472828</v>
+        <v>-1.069130982051291</v>
       </c>
       <c r="E109" t="n">
-        <v>2.821411440875808</v>
+        <v>-0.6131150802712787</v>
       </c>
       <c r="F109" t="n">
-        <v>275.4807779954693</v>
+        <v>206.004</v>
       </c>
       <c r="G109" t="n">
-        <v>333.484501197126</v>
+        <v>199.016</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4481,73 +4481,73 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>62.66585676519746</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>18315.39757324313</v>
+        <v>10430.90714613151</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45554</v>
+        <v>45481</v>
       </c>
       <c r="B110" t="n">
-        <v>310.4772455361604</v>
+        <v>205.17</v>
       </c>
       <c r="C110" t="n">
-        <v>33.77961171525455</v>
+        <v>38.39080459770114</v>
       </c>
       <c r="D110" t="n">
-        <v>-7.405504872715312</v>
+        <v>-0.8400053644552656</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7760281781575842</v>
+        <v>-0.4991111048262756</v>
       </c>
       <c r="F110" t="n">
-        <v>282.9780054310008</v>
+        <v>206.586</v>
       </c>
       <c r="G110" t="n">
-        <v>331.9160160335944</v>
+        <v>199.429</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J110" t="n">
-        <v>19456.32259762207</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>19456.32259762207</v>
+        <v>10450.26231345184</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45555</v>
+        <v>45482</v>
       </c>
       <c r="B111" t="n">
-        <v>326.7657618577594</v>
+        <v>207.63</v>
       </c>
       <c r="C111" t="n">
-        <v>41.73323530446901</v>
+        <v>44.5200816882233</v>
       </c>
       <c r="D111" t="n">
-        <v>-5.31440091173539</v>
+        <v>-0.5740304072406275</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.4420576398210108</v>
+        <v>-0.413887539919028</v>
       </c>
       <c r="F111" t="n">
-        <v>291.4973649235695</v>
+        <v>207.022</v>
       </c>
       <c r="G111" t="n">
-        <v>331.0904108207625</v>
+        <v>199.813</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4555,36 +4555,36 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J111" t="n">
-        <v>19456.32259762207</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>19456.32259762207</v>
+        <v>10575.56155452554</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45556</v>
+        <v>45483</v>
       </c>
       <c r="B112" t="n">
-        <v>342.8743206455331</v>
+        <v>207.8</v>
       </c>
       <c r="C112" t="n">
-        <v>46.35068976204606</v>
+        <v>38.98658718330853</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.330495387592691</v>
+        <v>-0.4766728377450136</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.8197451893753469</v>
+        <v>-0.3738518230886281</v>
       </c>
       <c r="F112" t="n">
-        <v>307.0255584654074</v>
+        <v>206.816</v>
       </c>
       <c r="G112" t="n">
-        <v>330.8682749526666</v>
+        <v>200.2225</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4592,36 +4592,36 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J112" t="n">
-        <v>19456.32259762207</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>19456.32259762207</v>
+        <v>10584.22044516885</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45557</v>
+        <v>45484</v>
       </c>
       <c r="B113" t="n">
-        <v>344.4100173790169</v>
+        <v>207.45</v>
       </c>
       <c r="C113" t="n">
-        <v>47.12957618484671</v>
+        <v>42.48384377634164</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1563864050772281</v>
+        <v>-0.3627848441306867</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.624518870484832</v>
+        <v>-0.3481465694245318</v>
       </c>
       <c r="F113" t="n">
-        <v>323.3596210531438</v>
+        <v>206.568</v>
       </c>
       <c r="G113" t="n">
-        <v>332.1055713956215</v>
+        <v>200.877</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4629,73 +4629,73 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J113" t="n">
-        <v>19456.32259762207</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>19456.32259762207</v>
+        <v>10566.39331737381</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45558</v>
+        <v>45485</v>
       </c>
       <c r="B114" t="n">
-        <v>369.3962446353663</v>
+        <v>204.94</v>
       </c>
       <c r="C114" t="n">
-        <v>49.57017126363343</v>
+        <v>46.01793248945146</v>
       </c>
       <c r="D114" t="n">
-        <v>4.096219198643382</v>
+        <v>-0.1765091163665033</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3196287433408109</v>
+        <v>-0.344487000747993</v>
       </c>
       <c r="F114" t="n">
-        <v>338.7847180107672</v>
+        <v>206.598</v>
       </c>
       <c r="G114" t="n">
-        <v>333.3218790685643</v>
+        <v>201.5475</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>19456.32259762207</v>
+        <v>10438.54734375796</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45559</v>
+        <v>45488</v>
       </c>
       <c r="B115" t="n">
-        <v>384.7201137106622</v>
+        <v>210.05</v>
       </c>
       <c r="C115" t="n">
-        <v>52.62505154495121</v>
+        <v>63.1035311073745</v>
       </c>
       <c r="D115" t="n">
-        <v>8.358719128969256</v>
+        <v>0.3193774905814735</v>
       </c>
       <c r="E115" t="n">
-        <v>1.9274468204665</v>
+        <v>-0.3864814718433655</v>
       </c>
       <c r="F115" t="n">
-        <v>353.6332916456676</v>
+        <v>207.574</v>
       </c>
       <c r="G115" t="n">
-        <v>334.2241289546546</v>
+        <v>202.367</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4703,36 +4703,36 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>20263.44000745656</v>
+        <v>10698.82340956553</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45560</v>
+        <v>45489</v>
       </c>
       <c r="B116" t="n">
-        <v>360.8973765929049</v>
+        <v>213.62</v>
       </c>
       <c r="C116" t="n">
-        <v>49.13690579330135</v>
+        <v>72.12765957446805</v>
       </c>
       <c r="D116" t="n">
-        <v>9.702639257249984</v>
+        <v>0.4273727235866147</v>
       </c>
       <c r="E116" t="n">
-        <v>3.482485307823197</v>
+        <v>-0.5629462124495752</v>
       </c>
       <c r="F116" t="n">
-        <v>360.4596145926967</v>
+        <v>208.772</v>
       </c>
       <c r="G116" t="n">
-        <v>333.2432396442499</v>
+        <v>203.359</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4740,36 +4740,36 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>19008.68210113578</v>
+        <v>10880.66011307492</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45561</v>
+        <v>45490</v>
       </c>
       <c r="B117" t="n">
-        <v>342.1176999675337</v>
+        <v>216.87</v>
       </c>
       <c r="C117" t="n">
-        <v>48.5139540926446</v>
+        <v>68.57720836142951</v>
       </c>
       <c r="D117" t="n">
-        <v>9.146902883283644</v>
+        <v>0.1955066722792083</v>
       </c>
       <c r="E117" t="n">
-        <v>4.615368822915287</v>
+        <v>-0.8105259464586226</v>
       </c>
       <c r="F117" t="n">
-        <v>360.3082904570969</v>
+        <v>210.586</v>
       </c>
       <c r="G117" t="n">
-        <v>332.2435755705515</v>
+        <v>204.4535</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4777,36 +4777,36 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>18019.5452270917</v>
+        <v>11046.19772831457</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45562</v>
+        <v>45491</v>
       </c>
       <c r="B118" t="n">
-        <v>363.9657365977055</v>
+        <v>209.98</v>
       </c>
       <c r="C118" t="n">
-        <v>60.49179117740653</v>
+        <v>62.71906532129577</v>
       </c>
       <c r="D118" t="n">
-        <v>10.35012200371364</v>
+        <v>-0.4341915484408787</v>
       </c>
       <c r="E118" t="n">
-        <v>5.762319459074957</v>
+        <v>-1.06203410114308</v>
       </c>
       <c r="F118" t="n">
-        <v>364.2194343008345</v>
+        <v>211.092</v>
       </c>
       <c r="G118" t="n">
-        <v>332.4688916037219</v>
+        <v>205.1025</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4814,36 +4814,36 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>19170.29446987539</v>
+        <v>10695.25798400652</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45563</v>
+        <v>45492</v>
       </c>
       <c r="B119" t="n">
-        <v>365.326694648947</v>
+        <v>209.78</v>
       </c>
       <c r="C119" t="n">
-        <v>70.94737591200207</v>
+        <v>56.95525291828793</v>
       </c>
       <c r="D119" t="n">
-        <v>11.28343139271124</v>
+        <v>-0.5300726730917233</v>
       </c>
       <c r="E119" t="n">
-        <v>6.866541845802213</v>
+        <v>-1.218994739318631</v>
       </c>
       <c r="F119" t="n">
-        <v>363.4055243035506</v>
+        <v>212.06</v>
       </c>
       <c r="G119" t="n">
-        <v>332.8638882378609</v>
+        <v>205.658</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4851,36 +4851,36 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>19241.97694979049</v>
+        <v>10685.07105383792</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45564</v>
+        <v>45495</v>
       </c>
       <c r="B120" t="n">
-        <v>404.3099049922711</v>
+        <v>210.28</v>
       </c>
       <c r="C120" t="n">
-        <v>74.20202760575447</v>
+        <v>55.28800755429648</v>
       </c>
       <c r="D120" t="n">
-        <v>14.99584235002345</v>
+        <v>-0.6243780696738384</v>
       </c>
       <c r="E120" t="n">
-        <v>8.49240194664646</v>
+        <v>-1.391225255875357</v>
       </c>
       <c r="F120" t="n">
-        <v>367.3234825598724</v>
+        <v>212.106</v>
       </c>
       <c r="G120" t="n">
-        <v>334.5073956764383</v>
+        <v>206.357</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4888,50 +4888,3491 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>52.67060204368767</v>
+        <v>50.93465084296847</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>21295.24610816908</v>
+        <v>10710.53837925941</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B121" t="n">
+        <v>210.33</v>
+      </c>
+      <c r="C121" t="n">
+        <v>54.84777517564405</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.7865732766615565</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.582937052425737</v>
+      </c>
+      <c r="F121" t="n">
+        <v>211.448</v>
+      </c>
+      <c r="G121" t="n">
+        <v>206.9295</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>10713.08511180156</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B122" t="n">
+        <v>208.59</v>
+      </c>
+      <c r="C122" t="n">
+        <v>50.76094591430579</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.9872431841017146</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-1.782027996366782</v>
+      </c>
+      <c r="F122" t="n">
+        <v>209.792</v>
+      </c>
+      <c r="G122" t="n">
+        <v>207.4555</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>10624.45881933479</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B123" t="n">
+        <v>208.67</v>
+      </c>
+      <c r="C123" t="n">
+        <v>48.25283774760737</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-1.051847419647515</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1.980724199433048</v>
+      </c>
+      <c r="F123" t="n">
+        <v>209.53</v>
+      </c>
+      <c r="G123" t="n">
+        <v>208.0175</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>10628.53359140223</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B124" t="n">
+        <v>212.24</v>
+      </c>
+      <c r="C124" t="n">
+        <v>50.80853058354816</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.127151772367483</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-2.212943394379431</v>
+      </c>
+      <c r="F124" t="n">
+        <v>210.022</v>
+      </c>
+      <c r="G124" t="n">
+        <v>208.671</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>10810.37029491163</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B125" t="n">
+        <v>210.85</v>
+      </c>
+      <c r="C125" t="n">
+        <v>46.43020594965675</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-1.570363484059214</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.484391299882418</v>
+      </c>
+      <c r="F125" t="n">
+        <v>210.136</v>
+      </c>
+      <c r="G125" t="n">
+        <v>209.1005</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10739.5711302399</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B126" t="n">
+        <v>215.19</v>
+      </c>
+      <c r="C126" t="n">
+        <v>49.68168462291872</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-1.971693872668567</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.712898253838219</v>
+      </c>
+      <c r="F126" t="n">
+        <v>211.108</v>
+      </c>
+      <c r="G126" t="n">
+        <v>209.5875</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>10960.62751489838</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B127" t="n">
+        <v>212.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>47.81615033011681</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-2.897149112345659</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-2.898199349130632</v>
+      </c>
+      <c r="F127" t="n">
+        <v>211.95</v>
+      </c>
+      <c r="G127" t="n">
+        <v>209.786</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>10838.89369938369</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B128" t="n">
+        <v>207.96</v>
+      </c>
+      <c r="C128" t="n">
+        <v>40.41016753321779</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-3.792880722081208</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.898461908326875</v>
+      </c>
+      <c r="F128" t="n">
+        <v>211.808</v>
+      </c>
+      <c r="G128" t="n">
+        <v>209.7495</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>10592.36998930372</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B129" t="n">
+        <v>199.14</v>
+      </c>
+      <c r="C129" t="n">
+        <v>18.57707509881413</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-4.388190802549815</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-2.674857204888291</v>
+      </c>
+      <c r="F129" t="n">
+        <v>209.188</v>
+      </c>
+      <c r="G129" t="n">
+        <v>209.467</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>10143.12636886874</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B130" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.680253264740713</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-4.186158348128998</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-2.24652380547291</v>
+      </c>
+      <c r="F130" t="n">
+        <v>205.998</v>
+      </c>
+      <c r="G130" t="n">
+        <v>208.9535</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>50.93465084296847</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>9927.163449294554</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B131" t="n">
+        <v>200.34</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.494925084581837</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-3.435692803059084</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1.761615169808888</v>
+      </c>
+      <c r="F131" t="n">
+        <v>203.028</v>
+      </c>
+      <c r="G131" t="n">
+        <v>208.589</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K131" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B132" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.297597042513758</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.981743066579895</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1.343095761496339</v>
+      </c>
+      <c r="F132" t="n">
+        <v>200.548</v>
+      </c>
+      <c r="G132" t="n">
+        <v>208.219</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K132" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B133" t="n">
+        <v>204.06</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.871660555264441</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-2.365076412868945</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-0.9334339352254502</v>
+      </c>
+      <c r="F133" t="n">
+        <v>199.768</v>
+      </c>
+      <c r="G133" t="n">
+        <v>208.0495</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K133" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B134" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.090311986863597</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-1.916238954308881</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.5755233158145764</v>
+      </c>
+      <c r="F134" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>208.0925</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K134" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B135" t="n">
+        <v>206.19</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.543234000976952</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-1.492650213320445</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.2403444061910003</v>
+      </c>
+      <c r="F135" t="n">
+        <v>203.358</v>
+      </c>
+      <c r="G135" t="n">
+        <v>207.8995</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K135" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B136" t="n">
+        <v>207.94</v>
+      </c>
+      <c r="C136" t="n">
+        <v>23.38501291989657</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.9699947626287155</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.07273204559136098</v>
+      </c>
+      <c r="F136" t="n">
+        <v>204.878</v>
+      </c>
+      <c r="G136" t="n">
+        <v>207.6155</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K136" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B137" t="n">
+        <v>210.24</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.23709456372768</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.4669691544712578</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.3334137476463801</v>
+      </c>
+      <c r="F137" t="n">
+        <v>206.846</v>
+      </c>
+      <c r="G137" t="n">
+        <v>207.284</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K137" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B138" t="n">
+        <v>211.55</v>
+      </c>
+      <c r="C138" t="n">
+        <v>36.35547576301617</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.05231509963067538</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5335094731757896</v>
+      </c>
+      <c r="F138" t="n">
+        <v>208.344</v>
+      </c>
+      <c r="G138" t="n">
+        <v>207.3625</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K138" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B139" t="n">
+        <v>213.97</v>
+      </c>
+      <c r="C139" t="n">
+        <v>53.01638034358768</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.3443133863604544</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.6799656163774058</v>
+      </c>
+      <c r="F139" t="n">
+        <v>209.978</v>
+      </c>
+      <c r="G139" t="n">
+        <v>207.572</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K139" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B140" t="n">
+        <v>215.45</v>
+      </c>
+      <c r="C140" t="n">
+        <v>47.56272401433689</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5991473683147888</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.7638786738816437</v>
+      </c>
+      <c r="F140" t="n">
+        <v>211.83</v>
+      </c>
+      <c r="G140" t="n">
+        <v>207.8305</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K140" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B141" t="n">
+        <v>214.52</v>
+      </c>
+      <c r="C141" t="n">
+        <v>61.72161172161173</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.7650024162883255</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.8050615002733574</v>
+      </c>
+      <c r="F141" t="n">
+        <v>213.146</v>
+      </c>
+      <c r="G141" t="n">
+        <v>208.04</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K141" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B142" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>59.25646822406431</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.060257369646706</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.8150762712696153</v>
+      </c>
+      <c r="F142" t="n">
+        <v>214.018</v>
+      </c>
+      <c r="G142" t="n">
+        <v>208.3405</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10204.2479498803</v>
+      </c>
+      <c r="K142" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B143" t="n">
+        <v>216.63</v>
+      </c>
+      <c r="C143" t="n">
+        <v>63.05649570424369</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.413542675647477</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.7537809966753426</v>
+      </c>
+      <c r="F143" t="n">
+        <v>215.034</v>
+      </c>
+      <c r="G143" t="n">
+        <v>208.7385</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>10204.2479498803</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B144" t="n">
+        <v>218.31</v>
+      </c>
+      <c r="C144" t="n">
+        <v>67.93129966675212</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.637211663660821</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.5888405769323088</v>
+      </c>
+      <c r="F144" t="n">
+        <v>215.902</v>
+      </c>
+      <c r="G144" t="n">
+        <v>209.042</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>10283.38351077122</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B145" t="n">
+        <v>219.17</v>
+      </c>
+      <c r="C145" t="n">
+        <v>63.56440393379704</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.727826093253725</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.3267478052501808</v>
+      </c>
+      <c r="F145" t="n">
+        <v>216.646</v>
+      </c>
+      <c r="G145" t="n">
+        <v>209.458</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>10323.89338122728</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B146" t="n">
+        <v>220.18</v>
+      </c>
+      <c r="C146" t="n">
+        <v>62.99025433800809</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.730787403850456</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.02352176675070533</v>
+      </c>
+      <c r="F146" t="n">
+        <v>217.778</v>
+      </c>
+      <c r="G146" t="n">
+        <v>209.7075</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>10371.46892676289</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B147" t="n">
+        <v>221.29</v>
+      </c>
+      <c r="C147" t="n">
+        <v>66.11996251171507</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.606555659865137</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.4620990594009958</v>
+      </c>
+      <c r="F147" t="n">
+        <v>219.116</v>
+      </c>
+      <c r="G147" t="n">
+        <v>210.132</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>10423.75492235153</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B148" t="n">
+        <v>222.21</v>
+      </c>
+      <c r="C148" t="n">
+        <v>63.11787072243349</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.311604515216743</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.979262739217529</v>
+      </c>
+      <c r="F148" t="n">
+        <v>220.232</v>
+      </c>
+      <c r="G148" t="n">
+        <v>210.8445</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>10467.09106283941</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B149" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>66.04259302597708</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.822388988553314</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.551979552826097</v>
+      </c>
+      <c r="F149" t="n">
+        <v>221.53</v>
+      </c>
+      <c r="G149" t="n">
+        <v>212.1275</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>10589.09171921291</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B150" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>61.48263348885435</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.07769903258514432</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.14557168817095</v>
+      </c>
+      <c r="F150" t="n">
+        <v>221.756</v>
+      </c>
+      <c r="G150" t="n">
+        <v>213.3975</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>10377.12146682653</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B151" t="n">
+        <v>219.33</v>
+      </c>
+      <c r="C151" t="n">
+        <v>60.24894067796612</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.7672266663643086</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-2.662539852067401</v>
+      </c>
+      <c r="F151" t="n">
+        <v>221.586</v>
+      </c>
+      <c r="G151" t="n">
+        <v>214.347</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>10331.43010131213</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B152" t="n">
+        <v>217.63</v>
+      </c>
+      <c r="C152" t="n">
+        <v>59.93059263214096</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-1.537391367422572</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-3.136368148493174</v>
+      </c>
+      <c r="F152" t="n">
+        <v>220.854</v>
+      </c>
+      <c r="G152" t="n">
+        <v>215.2085</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>10251.35245041061</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B153" t="n">
+        <v>212.46</v>
+      </c>
+      <c r="C153" t="n">
+        <v>54.09785932721714</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-2.324948620519905</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-3.536112343760825</v>
+      </c>
+      <c r="F153" t="n">
+        <v>218.904</v>
+      </c>
+      <c r="G153" t="n">
+        <v>215.6285</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>10007.82218266892</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B154" t="n">
+        <v>216.81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>60.85311317509461</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-2.769940625447475</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-3.838903274571055</v>
+      </c>
+      <c r="F154" t="n">
+        <v>217.306</v>
+      </c>
+      <c r="G154" t="n">
+        <v>216.179</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>10212.72675997576</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B155" t="n">
+        <v>205.56</v>
+      </c>
+      <c r="C155" t="n">
+        <v>35.42354235423539</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-3.740531284457603</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-4.106143936851949</v>
+      </c>
+      <c r="F155" t="n">
+        <v>214.358</v>
+      </c>
+      <c r="G155" t="n">
+        <v>216.1475</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>9682.801129009809</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B156" t="n">
+        <v>207.23</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50.46728971962615</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-3.779495634183888</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-4.197547099950535</v>
+      </c>
+      <c r="F156" t="n">
+        <v>211.938</v>
+      </c>
+      <c r="G156" t="n">
+        <v>216.112</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>9761.465644895421</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B157" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>48.27067669172934</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-3.944290194973661</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-4.302059966392196</v>
+      </c>
+      <c r="F157" t="n">
+        <v>209.732</v>
+      </c>
+      <c r="G157" t="n">
+        <v>215.93</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9731.789809561327</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B158" t="n">
+        <v>204.32</v>
+      </c>
+      <c r="C158" t="n">
+        <v>47.69386720729855</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-4.033111031545758</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-4.39150240924683</v>
+      </c>
+      <c r="F158" t="n">
+        <v>208.104</v>
+      </c>
+      <c r="G158" t="n">
+        <v>215.5685</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9624.391548352229</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B159" t="n">
+        <v>207.86</v>
+      </c>
+      <c r="C159" t="n">
+        <v>42.4256086564473</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-3.855669829766185</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-4.481100253672098</v>
+      </c>
+      <c r="F159" t="n">
+        <v>206.314</v>
+      </c>
+      <c r="G159" t="n">
+        <v>215.263</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>9791.141480229515</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B160" t="n">
+        <v>209.25</v>
+      </c>
+      <c r="C160" t="n">
+        <v>46.01518026565464</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-3.933544225607278</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-4.637457859648576</v>
+      </c>
+      <c r="F160" t="n">
+        <v>207.052</v>
+      </c>
+      <c r="G160" t="n">
+        <v>214.953</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>9856.61673596664</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B161" t="n">
+        <v>207.53</v>
+      </c>
+      <c r="C161" t="n">
+        <v>41.76049129989767</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-4.117252356653779</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-4.8134362681589</v>
+      </c>
+      <c r="F161" t="n">
+        <v>207.112</v>
+      </c>
+      <c r="G161" t="n">
+        <v>214.6035</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>9775.596995054513</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B162" t="n">
+        <v>210.48</v>
+      </c>
+      <c r="C162" t="n">
+        <v>42.36760124610594</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-4.116716155092718</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-4.98748224603518</v>
+      </c>
+      <c r="F162" t="n">
+        <v>207.888</v>
+      </c>
+      <c r="G162" t="n">
+        <v>214.3975</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>9914.555271618916</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B163" t="n">
+        <v>211.09</v>
+      </c>
+      <c r="C163" t="n">
+        <v>45.44981799271972</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-4.356515895571619</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-5.205173768770796</v>
+      </c>
+      <c r="F163" t="n">
+        <v>209.242</v>
+      </c>
+      <c r="G163" t="n">
+        <v>214.1205</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>9943.289016942404</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B164" t="n">
+        <v>211.44</v>
+      </c>
+      <c r="C164" t="n">
+        <v>30.85068831627251</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-4.661329151301828</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-5.41733823707059</v>
+      </c>
+      <c r="F164" t="n">
+        <v>209.958</v>
+      </c>
+      <c r="G164" t="n">
+        <v>213.777</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>9959.775592128011</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B165" t="n">
+        <v>211.59</v>
+      </c>
+      <c r="C165" t="n">
+        <v>32.94239392894104</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-5.018216919142162</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-5.60634050851278</v>
+      </c>
+      <c r="F165" t="n">
+        <v>210.426</v>
+      </c>
+      <c r="G165" t="n">
+        <v>213.398</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>9966.841267207557</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B166" t="n">
+        <v>210.19</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28.59649122807019</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-5.416015969452701</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-5.753371405855434</v>
+      </c>
+      <c r="F166" t="n">
+        <v>210.958</v>
+      </c>
+      <c r="G166" t="n">
+        <v>212.8985</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>9900.894966465128</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B167" t="n">
+        <v>209.78</v>
+      </c>
+      <c r="C167" t="n">
+        <v>26.38036809815954</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-5.702428343202484</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-5.837710264956117</v>
+      </c>
+      <c r="F167" t="n">
+        <v>210.818</v>
+      </c>
+      <c r="G167" t="n">
+        <v>212.323</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>9881.582121247702</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B168" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>26.32653061224492</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-5.943304815251054</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-5.871530745394526</v>
+      </c>
+      <c r="F168" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="G168" t="n">
+        <v>211.7375</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>9915.497361629523</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>45565</v>
       </c>
-      <c r="B121" t="n">
-        <v>432.7203563027678</v>
-      </c>
-      <c r="C121" t="n">
-        <v>82.49914045567701</v>
-      </c>
-      <c r="D121" t="n">
-        <v>19.99989443137576</v>
-      </c>
-      <c r="E121" t="n">
-        <v>10.79390044359232</v>
-      </c>
-      <c r="F121" t="n">
-        <v>381.688078501845</v>
-      </c>
-      <c r="G121" t="n">
-        <v>337.5716300724444</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>52.67060204368767</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>22791.64168302581</v>
+      <c r="B169" t="n">
+        <v>210.86</v>
+      </c>
+      <c r="C169" t="n">
+        <v>25.80860286762255</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-6.237611805898496</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-5.853587227930394</v>
+      </c>
+      <c r="F169" t="n">
+        <v>210.584</v>
+      </c>
+      <c r="G169" t="n">
+        <v>211.0405</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>9932.454981820434</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B170" t="n">
+        <v>207.04</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22.0392431674842</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-6.559180193148165</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-5.757581083438367</v>
+      </c>
+      <c r="F170" t="n">
+        <v>209.674</v>
+      </c>
+      <c r="G170" t="n">
+        <v>210.3775</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>9752.515789794663</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B171" t="n">
+        <v>207.29</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.38728323699421</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-6.485266677337393</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-5.557181306010918</v>
+      </c>
+      <c r="F171" t="n">
+        <v>209.094</v>
+      </c>
+      <c r="G171" t="n">
+        <v>209.7755</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>9764.291914927238</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B172" t="n">
+        <v>205.23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>17.60513186029934</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-6.322049547304886</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-5.325159963179299</v>
+      </c>
+      <c r="F172" t="n">
+        <v>208.184</v>
+      </c>
+      <c r="G172" t="n">
+        <v>209.1555</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>9667.256643834808</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B173" t="n">
+        <v>211.22</v>
+      </c>
+      <c r="C173" t="n">
+        <v>20.89678510998309</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-5.812022598829856</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-5.075937567147902</v>
+      </c>
+      <c r="F173" t="n">
+        <v>208.328</v>
+      </c>
+      <c r="G173" t="n">
+        <v>209.0935</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>9949.412602011344</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B174" t="n">
+        <v>210.93</v>
+      </c>
+      <c r="C174" t="n">
+        <v>28.13220599538816</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-5.68639514679333</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-4.891916309227413</v>
+      </c>
+      <c r="F174" t="n">
+        <v>208.342</v>
+      </c>
+      <c r="G174" t="n">
+        <v>208.7995</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>9935.752296857556</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B175" t="n">
+        <v>210.75</v>
+      </c>
+      <c r="C175" t="n">
+        <v>24.59524629693418</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-5.413810360422445</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-4.693296599835933</v>
+      </c>
+      <c r="F175" t="n">
+        <v>209.084</v>
+      </c>
+      <c r="G175" t="n">
+        <v>209.059</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>9927.2734867621</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B176" t="n">
+        <v>213.42</v>
+      </c>
+      <c r="C176" t="n">
+        <v>33.63259668508283</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-4.968819446030182</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-4.513168159689305</v>
+      </c>
+      <c r="F176" t="n">
+        <v>210.31</v>
+      </c>
+      <c r="G176" t="n">
+        <v>209.3685</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>10053.04250317802</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B177" t="n">
+        <v>212.84</v>
+      </c>
+      <c r="C177" t="n">
+        <v>30.64570090331215</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-4.600430032445388</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-4.399255338104085</v>
+      </c>
+      <c r="F177" t="n">
+        <v>211.832</v>
+      </c>
+      <c r="G177" t="n">
+        <v>209.6805</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>10025.72189287044</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B178" t="n">
+        <v>222.29</v>
+      </c>
+      <c r="C178" t="n">
+        <v>50.80680331443525</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-4.004261289543422</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-4.34896166451876</v>
+      </c>
+      <c r="F178" t="n">
+        <v>214.046</v>
+      </c>
+      <c r="G178" t="n">
+        <v>210.579</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>10470.85942288184</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B179" t="n">
+        <v>221.48</v>
+      </c>
+      <c r="C179" t="n">
+        <v>46.84528954191875</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-4.147271202573421</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-4.435136758262594</v>
+      </c>
+      <c r="F179" t="n">
+        <v>216.156</v>
+      </c>
+      <c r="G179" t="n">
+        <v>211.26</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>10432.70477745229</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B180" t="n">
+        <v>222.39</v>
+      </c>
+      <c r="C180" t="n">
+        <v>55.13981882630954</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-4.187007183166997</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-4.507103147184887</v>
+      </c>
+      <c r="F180" t="n">
+        <v>218.484</v>
+      </c>
+      <c r="G180" t="n">
+        <v>211.917</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>10475.56987293487</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B181" t="n">
+        <v>223.64</v>
+      </c>
+      <c r="C181" t="n">
+        <v>54.15860735009667</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-4.269477366642178</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-4.587127138189359</v>
+      </c>
+      <c r="F181" t="n">
+        <v>220.528</v>
+      </c>
+      <c r="G181" t="n">
+        <v>212.7225</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>10534.45049859775</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B182" t="n">
+        <v>224.42</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27.64612954186413</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-4.43991054821754</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-4.666539581076155</v>
+      </c>
+      <c r="F182" t="n">
+        <v>222.844</v>
+      </c>
+      <c r="G182" t="n">
+        <v>213.4195</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>10571.19200901139</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B183" t="n">
+        <v>225.37</v>
+      </c>
+      <c r="C183" t="n">
+        <v>40.88123240019878</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-4.672282928363273</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-4.723196839290807</v>
+      </c>
+      <c r="F183" t="n">
+        <v>223.46</v>
+      </c>
+      <c r="G183" t="n">
+        <v>214.1335</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>10615.94128451518</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B184" t="n">
+        <v>223</v>
+      </c>
+      <c r="C184" t="n">
+        <v>38.07167235494881</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-4.997641378245817</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-4.735925317022691</v>
+      </c>
+      <c r="F184" t="n">
+        <v>223.764</v>
+      </c>
+      <c r="G184" t="n">
+        <v>214.7115</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>10504.30361825835</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B185" t="n">
+        <v>224.12</v>
+      </c>
+      <c r="C185" t="n">
+        <v>37.31393209566818</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-5.098915016048721</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-4.670496301716909</v>
+      </c>
+      <c r="F185" t="n">
+        <v>224.11</v>
+      </c>
+      <c r="G185" t="n">
+        <v>215.338</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>10557.0606588523</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B186" t="n">
+        <v>223.41</v>
+      </c>
+      <c r="C186" t="n">
+        <v>36.39427127211457</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-5.268047331701865</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-4.563391623133955</v>
+      </c>
+      <c r="F186" t="n">
+        <v>224.064</v>
+      </c>
+      <c r="G186" t="n">
+        <v>215.999</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>10523.61646347578</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B187" t="n">
+        <v>224.98</v>
+      </c>
+      <c r="C187" t="n">
+        <v>36.37588413607274</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-5.335004617038066</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-4.387227695991978</v>
+      </c>
+      <c r="F187" t="n">
+        <v>224.176</v>
+      </c>
+      <c r="G187" t="n">
+        <v>216.759</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>10597.57052930836</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B188" t="n">
+        <v>222.31</v>
+      </c>
+      <c r="C188" t="n">
+        <v>32.96760710553814</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-5.502720939528416</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-4.150283465730455</v>
+      </c>
+      <c r="F188" t="n">
+        <v>223.564</v>
+      </c>
+      <c r="G188" t="n">
+        <v>217.3495</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>10471.80151289244</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B189" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>32.82469221432287</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-5.364893832022972</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-3.812174097280965</v>
+      </c>
+      <c r="F189" t="n">
+        <v>224.064</v>
+      </c>
+      <c r="G189" t="n">
+        <v>218.0815</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>10622.06486958412</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B190" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>30.00903342366759</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-5.435741504522923</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-3.423994163595463</v>
+      </c>
+      <c r="F190" t="n">
+        <v>223.82</v>
+      </c>
+      <c r="G190" t="n">
+        <v>218.8745</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>10499.59316820533</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B191" t="n">
+        <v>224.41</v>
+      </c>
+      <c r="C191" t="n">
+        <v>33.2556471853711</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-5.182376293720722</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-2.921057328363597</v>
+      </c>
+      <c r="F191" t="n">
+        <v>224.02</v>
+      </c>
+      <c r="G191" t="n">
+        <v>219.7305</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>10570.72096400609</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B192" t="n">
+        <v>221.92</v>
+      </c>
+      <c r="C192" t="n">
+        <v>33.03956834532373</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-4.937355587660875</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-2.355727587024316</v>
+      </c>
+      <c r="F192" t="n">
+        <v>223.408</v>
+      </c>
+      <c r="G192" t="n">
+        <v>220.565</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>10453.43075768562</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B193" t="n">
+        <v>222.94</v>
+      </c>
+      <c r="C193" t="n">
+        <v>31.36953551912569</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-4.2992767142876</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-1.710320586865176</v>
+      </c>
+      <c r="F193" t="n">
+        <v>223.534</v>
+      </c>
+      <c r="G193" t="n">
+        <v>221.151</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>10501.47734822654</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B194" t="n">
+        <v>219.78</v>
+      </c>
+      <c r="C194" t="n">
+        <v>25.69690826153067</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-3.526175654610626</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-1.06308155500957</v>
+      </c>
+      <c r="F194" t="n">
+        <v>222.39</v>
+      </c>
+      <c r="G194" t="n">
+        <v>221.5935</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>47.10450053030652</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>10352.62712655077</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B195" t="n">
+        <v>221.49</v>
+      </c>
+      <c r="C195" t="n">
+        <v>25.68389057750761</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-2.166382292555852</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.4473080301093061</v>
+      </c>
+      <c r="F195" t="n">
+        <v>222.108</v>
+      </c>
+      <c r="G195" t="n">
+        <v>222.1305</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K195" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B196" t="n">
+        <v>247.06</v>
+      </c>
+      <c r="C196" t="n">
+        <v>45.71680894907271</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.5733895680051546</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-0.01753946449766963</v>
+      </c>
+      <c r="F196" t="n">
+        <v>226.638</v>
+      </c>
+      <c r="G196" t="n">
+        <v>223.8125</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K196" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B197" t="n">
+        <v>236.38</v>
+      </c>
+      <c r="C197" t="n">
+        <v>21.43161482743929</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-1.13530227858945</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.1214230613792016</v>
+      </c>
+      <c r="F197" t="n">
+        <v>229.53</v>
+      </c>
+      <c r="G197" t="n">
+        <v>224.9895</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K197" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B198" t="n">
+        <v>236.98</v>
+      </c>
+      <c r="C198" t="n">
+        <v>22.2319093286835</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.7485755596830188</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.4356043963713644</v>
+      </c>
+      <c r="F198" t="n">
+        <v>232.338</v>
+      </c>
+      <c r="G198" t="n">
+        <v>225.724</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K198" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B199" t="n">
+        <v>239.29</v>
+      </c>
+      <c r="C199" t="n">
+        <v>35.5601659751037</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.3051741757743116</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.7316493853849602</v>
+      </c>
+      <c r="F199" t="n">
+        <v>236.24</v>
+      </c>
+      <c r="G199" t="n">
+        <v>226.6145</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K199" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B200" t="n">
+        <v>239.56</v>
+      </c>
+      <c r="C200" t="n">
+        <v>39.58828186856692</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.03000612406222558</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.990855275674778</v>
+      </c>
+      <c r="F200" t="n">
+        <v>239.854</v>
+      </c>
+      <c r="G200" t="n">
+        <v>227.473</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K200" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B201" t="n">
+        <v>241.16</v>
+      </c>
+      <c r="C201" t="n">
+        <v>45.53429027113236</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.4298907085945132</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.231067563577916</v>
+      </c>
+      <c r="F201" t="n">
+        <v>238.674</v>
+      </c>
+      <c r="G201" t="n">
+        <v>228.349</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K201" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B202" t="n">
+        <v>241.87</v>
+      </c>
+      <c r="C202" t="n">
+        <v>43.17580340264652</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.771126804363405</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.431361777323767</v>
+      </c>
+      <c r="F202" t="n">
+        <v>239.772</v>
+      </c>
+      <c r="G202" t="n">
+        <v>229.2215</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K202" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B203" t="n">
+        <v>245.31</v>
+      </c>
+      <c r="C203" t="n">
+        <v>45.88188027320206</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.123160849444957</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.596420520563857</v>
+      </c>
+      <c r="F203" t="n">
+        <v>241.438</v>
+      </c>
+      <c r="G203" t="n">
+        <v>230.2185</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K203" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B204" t="n">
+        <v>245.03</v>
+      </c>
+      <c r="C204" t="n">
+        <v>52.16619318181818</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.205892872811717</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.714735438343582</v>
+      </c>
+      <c r="F204" t="n">
+        <v>242.586</v>
+      </c>
+      <c r="G204" t="n">
+        <v>231.32</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K204" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B205" t="n">
+        <v>243.09</v>
+      </c>
+      <c r="C205" t="n">
+        <v>50.42326094957672</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.322457849940747</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.841946079726548</v>
+      </c>
+      <c r="F205" t="n">
+        <v>243.292</v>
+      </c>
+      <c r="G205" t="n">
+        <v>232.2685</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K205" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B206" t="n">
+        <v>240.78</v>
+      </c>
+      <c r="C206" t="n">
+        <v>44.61417939678809</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.649528670204461</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.971818137172998</v>
+      </c>
+      <c r="F206" t="n">
+        <v>243.216</v>
+      </c>
+      <c r="G206" t="n">
+        <v>233.137</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K206" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B207" t="n">
+        <v>244.76</v>
+      </c>
+      <c r="C207" t="n">
+        <v>56.85774946921443</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.278196827410795</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2.052390503915132</v>
+      </c>
+      <c r="F207" t="n">
+        <v>243.794</v>
+      </c>
+      <c r="G207" t="n">
+        <v>234.126</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>10433.17582245759</v>
+      </c>
+      <c r="K207" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B208" t="n">
+        <v>248.55</v>
+      </c>
+      <c r="C208" t="n">
+        <v>70.16393442622957</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2.642232230573626</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.995938923041216</v>
+      </c>
+      <c r="F208" t="n">
+        <v>244.442</v>
+      </c>
+      <c r="G208" t="n">
+        <v>235.438</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>10433.17582245759</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B209" t="n">
+        <v>250.29</v>
+      </c>
+      <c r="C209" t="n">
+        <v>76.81522283425136</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2.682550403620468</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.834365596158113</v>
+      </c>
+      <c r="F209" t="n">
+        <v>245.494</v>
+      </c>
+      <c r="G209" t="n">
+        <v>236.6775</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>10506.21434963955</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B210" t="n">
+        <v>249.97</v>
+      </c>
+      <c r="C210" t="n">
+        <v>77.81504551988499</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.517828502256663</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.622319394292524</v>
+      </c>
+      <c r="F210" t="n">
+        <v>246.87</v>
+      </c>
+      <c r="G210" t="n">
+        <v>238.031</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>10492.78197682448</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B211" t="n">
+        <v>249.79</v>
+      </c>
+      <c r="C211" t="n">
+        <v>83.8563458856346</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.303542315392207</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.398442117301489</v>
+      </c>
+      <c r="F211" t="n">
+        <v>248.672</v>
+      </c>
+      <c r="G211" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>10485.226267116</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B212" t="n">
+        <v>249.72</v>
+      </c>
+      <c r="C212" t="n">
+        <v>76.85897435897435</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.014856421388572</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.172167067778809</v>
+      </c>
+      <c r="F212" t="n">
+        <v>249.664</v>
+      </c>
+      <c r="G212" t="n">
+        <v>240.69</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>10482.2879355627</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B213" t="n">
+        <v>246.25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>63.36113685511278</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.624208514185568</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.9614947293763682</v>
+      </c>
+      <c r="F213" t="n">
+        <v>249.204</v>
+      </c>
+      <c r="G213" t="n">
+        <v>241.8555</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>10336.63064284925</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B214" t="n">
+        <v>244.82</v>
+      </c>
+      <c r="C214" t="n">
+        <v>60.13236684525688</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.455283970603773</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.7958162831740681</v>
+      </c>
+      <c r="F214" t="n">
+        <v>248.11</v>
+      </c>
+      <c r="G214" t="n">
+        <v>243.1075</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>HOLD</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>41.97616504710356</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>10276.60472683189</v>
       </c>
     </row>
   </sheetData>
